--- a/source/Journals.xlsx
+++ b/source/Journals.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="A-A" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Other" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Sources" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Grants" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="521">
   <si>
     <t>Journal</t>
   </si>
@@ -2031,6 +2032,66 @@
   <si>
     <t>https://scientometrics.hse.ru/list_a</t>
   </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NSFC — National Natural Science Foundation of China</t>
+  </si>
+  <si>
+    <t>Основной национальный научный фонд. Программа для молодых учёных до 35 лет (Young Scientists Fund). Размер: ~200,000–300,000 RMB на 3 года. Направления: математика, информатика, инженерия, искусственный интеллект, робототехника и др. Важно: подавать с китайским научным соавтором (иногда требуется гражданство КНР, но бывают исключения в совместных вузах).</t>
+  </si>
+  <si>
+    <t>Shenzhen Science and Technology Innovation Commission</t>
+  </si>
+  <si>
+    <t>Местный шэньчжэньский фонд поддержки технологий и исследований. Программа для зарубежных специалистов и молодых исследователей. Направления: AI, big data, IoT, биомедицина, новые материалы. Может включать финансирование лабораторий, стартапов и прикладных проектов. Можно подавать через университет или R&amp;D-партнёра.</t>
+  </si>
+  <si>
+    <t>Guangdong Innovation and Entrepreneurship Program for Overseas Talents</t>
+  </si>
+  <si>
+    <t>Поддержка молодых учёных из-за рубежа (в т.ч. россиян), готовых вести НИР в Гуандуне. Предоставляет жильё, стипендию, грант на запуск проекта (иногда до 1–3 млн юаней).</t>
+  </si>
+  <si>
+    <t>Horizon Europe (ЕС) — Marie Skłodowska-Curie Actions (MSCA)</t>
+  </si>
+  <si>
+    <t>Поддержка международной мобильности и исследований. Варианты: (1) Postdoctoral Fellowships (до 2 лет). (2) Staff Exchange — совместные проекты с Китаем возможны через партнерства. Направления: ИИ, data science, образование, цифровые гуманитарные науки.</t>
+  </si>
+  <si>
+    <t>JSPS (Япония) — Postdoctoral Fellowship for Foreign Researchers</t>
+  </si>
+  <si>
+    <t>Можно подать от имени китайского университета-партнёра. До 2 лет в японской лаборатории.</t>
+  </si>
+  <si>
+    <t>The World Academy of Sciences (TWAS)</t>
+  </si>
+  <si>
+    <t>Для молодых учёных в развивающихся странах, возможны гранты на оборудование, исследования, конференции. Работает с Китаем через CAS (Chinese Academy of Sciences).</t>
+  </si>
+  <si>
+    <t>Alibaba DAMO Academy Young Fellow Program</t>
+  </si>
+  <si>
+    <t>Для исследователей в области AI, NLP, Computer Vision, Robotics. Даёт финансирование, доступ к данным и сотрудничество с лабораториями Alibaba.</t>
+  </si>
+  <si>
+    <t>Tencent Rhino-Bird Young Faculty Open Research Fund</t>
+  </si>
+  <si>
+    <t>Годовой конкурс поддержки прикладных исследований. Темы: ML, HCI, edge computing, 3D-визуализация, data mining.</t>
+  </si>
+  <si>
+    <t>Huawei Innovation Research Program (HIRP Open)</t>
+  </si>
+  <si>
+    <t>Открытая подача для университетов. Можно подавать индивидуально или в составе группы.</t>
+  </si>
 </sst>
 </file>
 
@@ -2040,7 +2101,7 @@
     <numFmt numFmtId="164" formatCode="d-m"/>
     <numFmt numFmtId="165" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2206,6 +2267,12 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2239,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2538,6 +2605,15 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2563,6 +2639,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -26291,4 +26371,4063 @@
   </hyperlinks>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.0"/>
+    <col customWidth="1" min="2" max="2" width="42.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="100" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="101" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="101" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="101" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="101" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="101" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="101" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="101" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="102"/>
+      <c r="B48" s="102"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="102"/>
+      <c r="B49" s="102"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="102"/>
+      <c r="B50" s="102"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="102"/>
+      <c r="B51" s="102"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="102"/>
+      <c r="B55" s="102"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="102"/>
+      <c r="B57" s="102"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="102"/>
+      <c r="B58" s="102"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="102"/>
+      <c r="B59" s="102"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="102"/>
+      <c r="B60" s="102"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="102"/>
+      <c r="B61" s="102"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="102"/>
+      <c r="B62" s="102"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="102"/>
+      <c r="B63" s="102"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="102"/>
+      <c r="B64" s="102"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="102"/>
+      <c r="B65" s="102"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="102"/>
+      <c r="B66" s="102"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="102"/>
+      <c r="B68" s="102"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="102"/>
+      <c r="B69" s="102"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="102"/>
+      <c r="B70" s="102"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="102"/>
+      <c r="B71" s="102"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="102"/>
+      <c r="B72" s="102"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="102"/>
+      <c r="B73" s="102"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="102"/>
+      <c r="B74" s="102"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="102"/>
+      <c r="B75" s="102"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="102"/>
+      <c r="B76" s="102"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="102"/>
+      <c r="B77" s="102"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="102"/>
+      <c r="B78" s="102"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="102"/>
+      <c r="B79" s="102"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="102"/>
+      <c r="B80" s="102"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="102"/>
+      <c r="B81" s="102"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="102"/>
+      <c r="B82" s="102"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="102"/>
+      <c r="B83" s="102"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="102"/>
+      <c r="B84" s="102"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="102"/>
+      <c r="B85" s="102"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="102"/>
+      <c r="B86" s="102"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="102"/>
+      <c r="B87" s="102"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="102"/>
+      <c r="B88" s="102"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="102"/>
+      <c r="B89" s="102"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="102"/>
+      <c r="B90" s="102"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="102"/>
+      <c r="B91" s="102"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="102"/>
+      <c r="B92" s="102"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="102"/>
+      <c r="B93" s="102"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="102"/>
+      <c r="B94" s="102"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="102"/>
+      <c r="B95" s="102"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="102"/>
+      <c r="B96" s="102"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="102"/>
+      <c r="B97" s="102"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="102"/>
+      <c r="B98" s="102"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="102"/>
+      <c r="B99" s="102"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="102"/>
+      <c r="B100" s="102"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="102"/>
+      <c r="B101" s="102"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="102"/>
+      <c r="B102" s="102"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="102"/>
+      <c r="B103" s="102"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="102"/>
+      <c r="B104" s="102"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="102"/>
+      <c r="B105" s="102"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="102"/>
+      <c r="B106" s="102"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="102"/>
+      <c r="B107" s="102"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="102"/>
+      <c r="B108" s="102"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="102"/>
+      <c r="B109" s="102"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="102"/>
+      <c r="B110" s="102"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="102"/>
+      <c r="B111" s="102"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="102"/>
+      <c r="B112" s="102"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="102"/>
+      <c r="B113" s="102"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="102"/>
+      <c r="B114" s="102"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="102"/>
+      <c r="B115" s="102"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="102"/>
+      <c r="B116" s="102"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="102"/>
+      <c r="B117" s="102"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="102"/>
+      <c r="B118" s="102"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="102"/>
+      <c r="B119" s="102"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="102"/>
+      <c r="B120" s="102"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="102"/>
+      <c r="B121" s="102"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="102"/>
+      <c r="B122" s="102"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="102"/>
+      <c r="B123" s="102"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="102"/>
+      <c r="B124" s="102"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="102"/>
+      <c r="B125" s="102"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="102"/>
+      <c r="B126" s="102"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="102"/>
+      <c r="B127" s="102"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="102"/>
+      <c r="B128" s="102"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="102"/>
+      <c r="B129" s="102"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="102"/>
+      <c r="B130" s="102"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="102"/>
+      <c r="B131" s="102"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="102"/>
+      <c r="B132" s="102"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="102"/>
+      <c r="B133" s="102"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="102"/>
+      <c r="B134" s="102"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="102"/>
+      <c r="B135" s="102"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="102"/>
+      <c r="B136" s="102"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="102"/>
+      <c r="B137" s="102"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="102"/>
+      <c r="B138" s="102"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="102"/>
+      <c r="B139" s="102"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="102"/>
+      <c r="B140" s="102"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="102"/>
+      <c r="B141" s="102"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="102"/>
+      <c r="B142" s="102"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="102"/>
+      <c r="B143" s="102"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="102"/>
+      <c r="B144" s="102"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="102"/>
+      <c r="B145" s="102"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="102"/>
+      <c r="B146" s="102"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="102"/>
+      <c r="B147" s="102"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="102"/>
+      <c r="B148" s="102"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="102"/>
+      <c r="B149" s="102"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="102"/>
+      <c r="B150" s="102"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="102"/>
+      <c r="B151" s="102"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="102"/>
+      <c r="B152" s="102"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="102"/>
+      <c r="B153" s="102"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="102"/>
+      <c r="B154" s="102"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="102"/>
+      <c r="B155" s="102"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="102"/>
+      <c r="B156" s="102"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="102"/>
+      <c r="B157" s="102"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="102"/>
+      <c r="B158" s="102"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="102"/>
+      <c r="B159" s="102"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="102"/>
+      <c r="B160" s="102"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="102"/>
+      <c r="B161" s="102"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="102"/>
+      <c r="B162" s="102"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="102"/>
+      <c r="B163" s="102"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="102"/>
+      <c r="B164" s="102"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="102"/>
+      <c r="B165" s="102"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="102"/>
+      <c r="B166" s="102"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="102"/>
+      <c r="B167" s="102"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="102"/>
+      <c r="B168" s="102"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="102"/>
+      <c r="B169" s="102"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="102"/>
+      <c r="B170" s="102"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="102"/>
+      <c r="B171" s="102"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="102"/>
+      <c r="B172" s="102"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="102"/>
+      <c r="B173" s="102"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="102"/>
+      <c r="B174" s="102"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="102"/>
+      <c r="B175" s="102"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="102"/>
+      <c r="B176" s="102"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="102"/>
+      <c r="B177" s="102"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="102"/>
+      <c r="B178" s="102"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="102"/>
+      <c r="B179" s="102"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="102"/>
+      <c r="B180" s="102"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="102"/>
+      <c r="B181" s="102"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="102"/>
+      <c r="B182" s="102"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="102"/>
+      <c r="B183" s="102"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="102"/>
+      <c r="B184" s="102"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="102"/>
+      <c r="B185" s="102"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="102"/>
+      <c r="B186" s="102"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="102"/>
+      <c r="B187" s="102"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="102"/>
+      <c r="B188" s="102"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="102"/>
+      <c r="B189" s="102"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="102"/>
+      <c r="B190" s="102"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="102"/>
+      <c r="B191" s="102"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="102"/>
+      <c r="B192" s="102"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="102"/>
+      <c r="B193" s="102"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="102"/>
+      <c r="B194" s="102"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="102"/>
+      <c r="B195" s="102"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="102"/>
+      <c r="B196" s="102"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="102"/>
+      <c r="B197" s="102"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="102"/>
+      <c r="B198" s="102"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="102"/>
+      <c r="B199" s="102"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="102"/>
+      <c r="B200" s="102"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="102"/>
+      <c r="B201" s="102"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="102"/>
+      <c r="B202" s="102"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="102"/>
+      <c r="B203" s="102"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="102"/>
+      <c r="B204" s="102"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="102"/>
+      <c r="B205" s="102"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="102"/>
+      <c r="B206" s="102"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="102"/>
+      <c r="B207" s="102"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="102"/>
+      <c r="B208" s="102"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="102"/>
+      <c r="B209" s="102"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="102"/>
+      <c r="B210" s="102"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="102"/>
+      <c r="B211" s="102"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="102"/>
+      <c r="B212" s="102"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="102"/>
+      <c r="B213" s="102"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="102"/>
+      <c r="B214" s="102"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="102"/>
+      <c r="B215" s="102"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="102"/>
+      <c r="B216" s="102"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="102"/>
+      <c r="B217" s="102"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="102"/>
+      <c r="B218" s="102"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="102"/>
+      <c r="B219" s="102"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="102"/>
+      <c r="B220" s="102"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="102"/>
+      <c r="B221" s="102"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="102"/>
+      <c r="B222" s="102"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="102"/>
+      <c r="B223" s="102"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="102"/>
+      <c r="B224" s="102"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="102"/>
+      <c r="B225" s="102"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="102"/>
+      <c r="B226" s="102"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="102"/>
+      <c r="B227" s="102"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="102"/>
+      <c r="B228" s="102"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="102"/>
+      <c r="B229" s="102"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="102"/>
+      <c r="B230" s="102"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="102"/>
+      <c r="B231" s="102"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="102"/>
+      <c r="B232" s="102"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="102"/>
+      <c r="B233" s="102"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="102"/>
+      <c r="B234" s="102"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="102"/>
+      <c r="B235" s="102"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="102"/>
+      <c r="B236" s="102"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="102"/>
+      <c r="B237" s="102"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="102"/>
+      <c r="B238" s="102"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="102"/>
+      <c r="B239" s="102"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="102"/>
+      <c r="B240" s="102"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="102"/>
+      <c r="B241" s="102"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="102"/>
+      <c r="B242" s="102"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="102"/>
+      <c r="B243" s="102"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="102"/>
+      <c r="B244" s="102"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="102"/>
+      <c r="B245" s="102"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="102"/>
+      <c r="B246" s="102"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="102"/>
+      <c r="B247" s="102"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="102"/>
+      <c r="B248" s="102"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="102"/>
+      <c r="B249" s="102"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="102"/>
+      <c r="B250" s="102"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="102"/>
+      <c r="B251" s="102"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="102"/>
+      <c r="B252" s="102"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="102"/>
+      <c r="B253" s="102"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="102"/>
+      <c r="B254" s="102"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="102"/>
+      <c r="B255" s="102"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="102"/>
+      <c r="B256" s="102"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="102"/>
+      <c r="B257" s="102"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="102"/>
+      <c r="B258" s="102"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="102"/>
+      <c r="B259" s="102"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="102"/>
+      <c r="B260" s="102"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="102"/>
+      <c r="B261" s="102"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="102"/>
+      <c r="B262" s="102"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="102"/>
+      <c r="B263" s="102"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="102"/>
+      <c r="B264" s="102"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="102"/>
+      <c r="B265" s="102"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="102"/>
+      <c r="B266" s="102"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="102"/>
+      <c r="B267" s="102"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="102"/>
+      <c r="B268" s="102"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="102"/>
+      <c r="B269" s="102"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="102"/>
+      <c r="B270" s="102"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="102"/>
+      <c r="B271" s="102"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="102"/>
+      <c r="B272" s="102"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="102"/>
+      <c r="B273" s="102"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="102"/>
+      <c r="B274" s="102"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="102"/>
+      <c r="B275" s="102"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="102"/>
+      <c r="B276" s="102"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="102"/>
+      <c r="B277" s="102"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="102"/>
+      <c r="B278" s="102"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="102"/>
+      <c r="B279" s="102"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="102"/>
+      <c r="B280" s="102"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="102"/>
+      <c r="B281" s="102"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="102"/>
+      <c r="B282" s="102"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="102"/>
+      <c r="B283" s="102"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="102"/>
+      <c r="B284" s="102"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="102"/>
+      <c r="B285" s="102"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="102"/>
+      <c r="B286" s="102"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="102"/>
+      <c r="B287" s="102"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="102"/>
+      <c r="B288" s="102"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="102"/>
+      <c r="B289" s="102"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="102"/>
+      <c r="B290" s="102"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="102"/>
+      <c r="B291" s="102"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="102"/>
+      <c r="B292" s="102"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="102"/>
+      <c r="B293" s="102"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="102"/>
+      <c r="B294" s="102"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="102"/>
+      <c r="B295" s="102"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="102"/>
+      <c r="B296" s="102"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="102"/>
+      <c r="B297" s="102"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="102"/>
+      <c r="B298" s="102"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="102"/>
+      <c r="B299" s="102"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="102"/>
+      <c r="B300" s="102"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="102"/>
+      <c r="B301" s="102"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="102"/>
+      <c r="B302" s="102"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="102"/>
+      <c r="B303" s="102"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="102"/>
+      <c r="B304" s="102"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="102"/>
+      <c r="B305" s="102"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="102"/>
+      <c r="B306" s="102"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="102"/>
+      <c r="B307" s="102"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="102"/>
+      <c r="B308" s="102"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="102"/>
+      <c r="B309" s="102"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="102"/>
+      <c r="B310" s="102"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="102"/>
+      <c r="B311" s="102"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="102"/>
+      <c r="B312" s="102"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="102"/>
+      <c r="B313" s="102"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="102"/>
+      <c r="B314" s="102"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="102"/>
+      <c r="B315" s="102"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="102"/>
+      <c r="B316" s="102"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="102"/>
+      <c r="B317" s="102"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="102"/>
+      <c r="B318" s="102"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="102"/>
+      <c r="B319" s="102"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="102"/>
+      <c r="B320" s="102"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="102"/>
+      <c r="B321" s="102"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="102"/>
+      <c r="B322" s="102"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="102"/>
+      <c r="B323" s="102"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="102"/>
+      <c r="B324" s="102"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="102"/>
+      <c r="B325" s="102"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="102"/>
+      <c r="B326" s="102"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="102"/>
+      <c r="B327" s="102"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="102"/>
+      <c r="B328" s="102"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="102"/>
+      <c r="B329" s="102"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="102"/>
+      <c r="B330" s="102"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="102"/>
+      <c r="B331" s="102"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="102"/>
+      <c r="B332" s="102"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="102"/>
+      <c r="B333" s="102"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="102"/>
+      <c r="B334" s="102"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="102"/>
+      <c r="B335" s="102"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="102"/>
+      <c r="B336" s="102"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="102"/>
+      <c r="B337" s="102"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="102"/>
+      <c r="B338" s="102"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="102"/>
+      <c r="B339" s="102"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="102"/>
+      <c r="B340" s="102"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="102"/>
+      <c r="B341" s="102"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="102"/>
+      <c r="B342" s="102"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="102"/>
+      <c r="B343" s="102"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="102"/>
+      <c r="B344" s="102"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="102"/>
+      <c r="B345" s="102"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="102"/>
+      <c r="B346" s="102"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="102"/>
+      <c r="B347" s="102"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="102"/>
+      <c r="B348" s="102"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="102"/>
+      <c r="B349" s="102"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="102"/>
+      <c r="B350" s="102"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="102"/>
+      <c r="B351" s="102"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="102"/>
+      <c r="B352" s="102"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="102"/>
+      <c r="B353" s="102"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="102"/>
+      <c r="B354" s="102"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="102"/>
+      <c r="B355" s="102"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="102"/>
+      <c r="B356" s="102"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="102"/>
+      <c r="B357" s="102"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="102"/>
+      <c r="B358" s="102"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="102"/>
+      <c r="B359" s="102"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="102"/>
+      <c r="B360" s="102"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="102"/>
+      <c r="B361" s="102"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="102"/>
+      <c r="B362" s="102"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="102"/>
+      <c r="B363" s="102"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="102"/>
+      <c r="B364" s="102"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="102"/>
+      <c r="B365" s="102"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="102"/>
+      <c r="B366" s="102"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="102"/>
+      <c r="B367" s="102"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="102"/>
+      <c r="B368" s="102"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="102"/>
+      <c r="B369" s="102"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="102"/>
+      <c r="B370" s="102"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="102"/>
+      <c r="B371" s="102"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="102"/>
+      <c r="B372" s="102"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="102"/>
+      <c r="B373" s="102"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="102"/>
+      <c r="B374" s="102"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="102"/>
+      <c r="B375" s="102"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="102"/>
+      <c r="B376" s="102"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="102"/>
+      <c r="B377" s="102"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="102"/>
+      <c r="B378" s="102"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="102"/>
+      <c r="B379" s="102"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="102"/>
+      <c r="B380" s="102"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="102"/>
+      <c r="B381" s="102"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="102"/>
+      <c r="B382" s="102"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="102"/>
+      <c r="B383" s="102"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="102"/>
+      <c r="B384" s="102"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="102"/>
+      <c r="B385" s="102"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="102"/>
+      <c r="B386" s="102"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="102"/>
+      <c r="B387" s="102"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="102"/>
+      <c r="B388" s="102"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="102"/>
+      <c r="B389" s="102"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="102"/>
+      <c r="B390" s="102"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="102"/>
+      <c r="B391" s="102"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="102"/>
+      <c r="B392" s="102"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="102"/>
+      <c r="B393" s="102"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="102"/>
+      <c r="B394" s="102"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="102"/>
+      <c r="B395" s="102"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="102"/>
+      <c r="B396" s="102"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="102"/>
+      <c r="B397" s="102"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="102"/>
+      <c r="B398" s="102"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="102"/>
+      <c r="B399" s="102"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="102"/>
+      <c r="B400" s="102"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="102"/>
+      <c r="B401" s="102"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="102"/>
+      <c r="B402" s="102"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="102"/>
+      <c r="B403" s="102"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="102"/>
+      <c r="B404" s="102"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="102"/>
+      <c r="B405" s="102"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="102"/>
+      <c r="B406" s="102"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="102"/>
+      <c r="B407" s="102"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="102"/>
+      <c r="B408" s="102"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="102"/>
+      <c r="B409" s="102"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="102"/>
+      <c r="B410" s="102"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="102"/>
+      <c r="B411" s="102"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="102"/>
+      <c r="B412" s="102"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="102"/>
+      <c r="B413" s="102"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="102"/>
+      <c r="B414" s="102"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="102"/>
+      <c r="B415" s="102"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="102"/>
+      <c r="B416" s="102"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="102"/>
+      <c r="B417" s="102"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="102"/>
+      <c r="B418" s="102"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="102"/>
+      <c r="B419" s="102"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="102"/>
+      <c r="B420" s="102"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="102"/>
+      <c r="B421" s="102"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="102"/>
+      <c r="B422" s="102"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="102"/>
+      <c r="B423" s="102"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="102"/>
+      <c r="B424" s="102"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="102"/>
+      <c r="B425" s="102"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="102"/>
+      <c r="B426" s="102"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="102"/>
+      <c r="B427" s="102"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="102"/>
+      <c r="B428" s="102"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="102"/>
+      <c r="B429" s="102"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="102"/>
+      <c r="B430" s="102"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="102"/>
+      <c r="B431" s="102"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="102"/>
+      <c r="B432" s="102"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="102"/>
+      <c r="B433" s="102"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="102"/>
+      <c r="B434" s="102"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="102"/>
+      <c r="B435" s="102"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="102"/>
+      <c r="B436" s="102"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="102"/>
+      <c r="B437" s="102"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="102"/>
+      <c r="B438" s="102"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="102"/>
+      <c r="B439" s="102"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="102"/>
+      <c r="B440" s="102"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="102"/>
+      <c r="B441" s="102"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="102"/>
+      <c r="B442" s="102"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="102"/>
+      <c r="B443" s="102"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="102"/>
+      <c r="B444" s="102"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="102"/>
+      <c r="B445" s="102"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="102"/>
+      <c r="B446" s="102"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="102"/>
+      <c r="B447" s="102"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="102"/>
+      <c r="B448" s="102"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="102"/>
+      <c r="B449" s="102"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="102"/>
+      <c r="B450" s="102"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="102"/>
+      <c r="B451" s="102"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="102"/>
+      <c r="B452" s="102"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="102"/>
+      <c r="B453" s="102"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="102"/>
+      <c r="B454" s="102"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="102"/>
+      <c r="B455" s="102"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="102"/>
+      <c r="B456" s="102"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="102"/>
+      <c r="B457" s="102"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="102"/>
+      <c r="B458" s="102"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="102"/>
+      <c r="B459" s="102"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="102"/>
+      <c r="B460" s="102"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="102"/>
+      <c r="B461" s="102"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="102"/>
+      <c r="B462" s="102"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="102"/>
+      <c r="B463" s="102"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="102"/>
+      <c r="B464" s="102"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="102"/>
+      <c r="B465" s="102"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="102"/>
+      <c r="B466" s="102"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="102"/>
+      <c r="B467" s="102"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="102"/>
+      <c r="B468" s="102"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="102"/>
+      <c r="B469" s="102"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="102"/>
+      <c r="B470" s="102"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="102"/>
+      <c r="B471" s="102"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="102"/>
+      <c r="B472" s="102"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="102"/>
+      <c r="B473" s="102"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="102"/>
+      <c r="B474" s="102"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="102"/>
+      <c r="B475" s="102"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="102"/>
+      <c r="B476" s="102"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="102"/>
+      <c r="B477" s="102"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="102"/>
+      <c r="B478" s="102"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="102"/>
+      <c r="B479" s="102"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="102"/>
+      <c r="B480" s="102"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="102"/>
+      <c r="B481" s="102"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="102"/>
+      <c r="B482" s="102"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="102"/>
+      <c r="B483" s="102"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="102"/>
+      <c r="B484" s="102"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="102"/>
+      <c r="B485" s="102"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="102"/>
+      <c r="B486" s="102"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="102"/>
+      <c r="B487" s="102"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="102"/>
+      <c r="B488" s="102"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="102"/>
+      <c r="B489" s="102"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="102"/>
+      <c r="B490" s="102"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="102"/>
+      <c r="B491" s="102"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="102"/>
+      <c r="B492" s="102"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="102"/>
+      <c r="B493" s="102"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="102"/>
+      <c r="B494" s="102"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="102"/>
+      <c r="B495" s="102"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="102"/>
+      <c r="B496" s="102"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="102"/>
+      <c r="B497" s="102"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="102"/>
+      <c r="B498" s="102"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="102"/>
+      <c r="B499" s="102"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="102"/>
+      <c r="B500" s="102"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="102"/>
+      <c r="B501" s="102"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="102"/>
+      <c r="B502" s="102"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="102"/>
+      <c r="B503" s="102"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="102"/>
+      <c r="B504" s="102"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="102"/>
+      <c r="B505" s="102"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="102"/>
+      <c r="B506" s="102"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="102"/>
+      <c r="B507" s="102"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="102"/>
+      <c r="B508" s="102"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="102"/>
+      <c r="B509" s="102"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="102"/>
+      <c r="B510" s="102"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="102"/>
+      <c r="B511" s="102"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="102"/>
+      <c r="B512" s="102"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="102"/>
+      <c r="B513" s="102"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="102"/>
+      <c r="B514" s="102"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="102"/>
+      <c r="B515" s="102"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="102"/>
+      <c r="B516" s="102"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="102"/>
+      <c r="B517" s="102"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="102"/>
+      <c r="B518" s="102"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="102"/>
+      <c r="B519" s="102"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="102"/>
+      <c r="B520" s="102"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="102"/>
+      <c r="B521" s="102"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="102"/>
+      <c r="B522" s="102"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="102"/>
+      <c r="B523" s="102"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="102"/>
+      <c r="B524" s="102"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="102"/>
+      <c r="B525" s="102"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="102"/>
+      <c r="B526" s="102"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="102"/>
+      <c r="B527" s="102"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="102"/>
+      <c r="B528" s="102"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="102"/>
+      <c r="B529" s="102"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="102"/>
+      <c r="B530" s="102"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="102"/>
+      <c r="B531" s="102"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="102"/>
+      <c r="B532" s="102"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="102"/>
+      <c r="B533" s="102"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="102"/>
+      <c r="B534" s="102"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="102"/>
+      <c r="B535" s="102"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="102"/>
+      <c r="B536" s="102"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="102"/>
+      <c r="B537" s="102"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="102"/>
+      <c r="B538" s="102"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="102"/>
+      <c r="B539" s="102"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="102"/>
+      <c r="B540" s="102"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="102"/>
+      <c r="B541" s="102"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="102"/>
+      <c r="B542" s="102"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="102"/>
+      <c r="B543" s="102"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="102"/>
+      <c r="B544" s="102"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="102"/>
+      <c r="B545" s="102"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="102"/>
+      <c r="B546" s="102"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="102"/>
+      <c r="B547" s="102"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="102"/>
+      <c r="B548" s="102"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="102"/>
+      <c r="B549" s="102"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="102"/>
+      <c r="B550" s="102"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="102"/>
+      <c r="B551" s="102"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="102"/>
+      <c r="B552" s="102"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="102"/>
+      <c r="B553" s="102"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="102"/>
+      <c r="B554" s="102"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="102"/>
+      <c r="B555" s="102"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="102"/>
+      <c r="B556" s="102"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="102"/>
+      <c r="B557" s="102"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="102"/>
+      <c r="B558" s="102"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="102"/>
+      <c r="B559" s="102"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="102"/>
+      <c r="B560" s="102"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="102"/>
+      <c r="B561" s="102"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="102"/>
+      <c r="B562" s="102"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="102"/>
+      <c r="B563" s="102"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="102"/>
+      <c r="B564" s="102"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="102"/>
+      <c r="B565" s="102"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="102"/>
+      <c r="B566" s="102"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="102"/>
+      <c r="B567" s="102"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="102"/>
+      <c r="B568" s="102"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="102"/>
+      <c r="B569" s="102"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="102"/>
+      <c r="B570" s="102"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="102"/>
+      <c r="B571" s="102"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="102"/>
+      <c r="B572" s="102"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="102"/>
+      <c r="B573" s="102"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="102"/>
+      <c r="B574" s="102"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="102"/>
+      <c r="B575" s="102"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="102"/>
+      <c r="B576" s="102"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="102"/>
+      <c r="B577" s="102"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="102"/>
+      <c r="B578" s="102"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="102"/>
+      <c r="B579" s="102"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="102"/>
+      <c r="B580" s="102"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="102"/>
+      <c r="B581" s="102"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="102"/>
+      <c r="B582" s="102"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="102"/>
+      <c r="B583" s="102"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="102"/>
+      <c r="B584" s="102"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="102"/>
+      <c r="B585" s="102"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="102"/>
+      <c r="B586" s="102"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="102"/>
+      <c r="B587" s="102"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="102"/>
+      <c r="B588" s="102"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="102"/>
+      <c r="B589" s="102"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="102"/>
+      <c r="B590" s="102"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="102"/>
+      <c r="B591" s="102"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="102"/>
+      <c r="B592" s="102"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="102"/>
+      <c r="B593" s="102"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="102"/>
+      <c r="B594" s="102"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="102"/>
+      <c r="B595" s="102"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="102"/>
+      <c r="B596" s="102"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="102"/>
+      <c r="B597" s="102"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="102"/>
+      <c r="B598" s="102"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="102"/>
+      <c r="B599" s="102"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="102"/>
+      <c r="B600" s="102"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="102"/>
+      <c r="B601" s="102"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="102"/>
+      <c r="B602" s="102"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="102"/>
+      <c r="B603" s="102"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="102"/>
+      <c r="B604" s="102"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="102"/>
+      <c r="B605" s="102"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="102"/>
+      <c r="B606" s="102"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="102"/>
+      <c r="B607" s="102"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="102"/>
+      <c r="B608" s="102"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="102"/>
+      <c r="B609" s="102"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="102"/>
+      <c r="B610" s="102"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="102"/>
+      <c r="B611" s="102"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="102"/>
+      <c r="B612" s="102"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="102"/>
+      <c r="B613" s="102"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="102"/>
+      <c r="B614" s="102"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="102"/>
+      <c r="B615" s="102"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="102"/>
+      <c r="B616" s="102"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="102"/>
+      <c r="B617" s="102"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="102"/>
+      <c r="B618" s="102"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="102"/>
+      <c r="B619" s="102"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="102"/>
+      <c r="B620" s="102"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="102"/>
+      <c r="B621" s="102"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="102"/>
+      <c r="B622" s="102"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="102"/>
+      <c r="B623" s="102"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="102"/>
+      <c r="B624" s="102"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="102"/>
+      <c r="B625" s="102"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="102"/>
+      <c r="B626" s="102"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="102"/>
+      <c r="B627" s="102"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="102"/>
+      <c r="B628" s="102"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="102"/>
+      <c r="B629" s="102"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="102"/>
+      <c r="B630" s="102"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="102"/>
+      <c r="B631" s="102"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="102"/>
+      <c r="B632" s="102"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="102"/>
+      <c r="B633" s="102"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="102"/>
+      <c r="B634" s="102"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="102"/>
+      <c r="B635" s="102"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="102"/>
+      <c r="B636" s="102"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="102"/>
+      <c r="B637" s="102"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="102"/>
+      <c r="B638" s="102"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="102"/>
+      <c r="B639" s="102"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="102"/>
+      <c r="B640" s="102"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="102"/>
+      <c r="B641" s="102"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="102"/>
+      <c r="B642" s="102"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="102"/>
+      <c r="B643" s="102"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="102"/>
+      <c r="B644" s="102"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="102"/>
+      <c r="B645" s="102"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="102"/>
+      <c r="B646" s="102"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="102"/>
+      <c r="B647" s="102"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="102"/>
+      <c r="B648" s="102"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="102"/>
+      <c r="B649" s="102"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="102"/>
+      <c r="B650" s="102"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="102"/>
+      <c r="B651" s="102"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="102"/>
+      <c r="B652" s="102"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="102"/>
+      <c r="B653" s="102"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="102"/>
+      <c r="B654" s="102"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="102"/>
+      <c r="B655" s="102"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="102"/>
+      <c r="B656" s="102"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="102"/>
+      <c r="B657" s="102"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="102"/>
+      <c r="B658" s="102"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="102"/>
+      <c r="B659" s="102"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="102"/>
+      <c r="B660" s="102"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="102"/>
+      <c r="B661" s="102"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="102"/>
+      <c r="B662" s="102"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="102"/>
+      <c r="B663" s="102"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="102"/>
+      <c r="B664" s="102"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="102"/>
+      <c r="B665" s="102"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="102"/>
+      <c r="B666" s="102"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="102"/>
+      <c r="B667" s="102"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="102"/>
+      <c r="B668" s="102"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="102"/>
+      <c r="B669" s="102"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="102"/>
+      <c r="B670" s="102"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="102"/>
+      <c r="B671" s="102"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="102"/>
+      <c r="B672" s="102"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="102"/>
+      <c r="B673" s="102"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="102"/>
+      <c r="B674" s="102"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="102"/>
+      <c r="B675" s="102"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="102"/>
+      <c r="B676" s="102"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="102"/>
+      <c r="B677" s="102"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="102"/>
+      <c r="B678" s="102"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="102"/>
+      <c r="B679" s="102"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="102"/>
+      <c r="B680" s="102"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="102"/>
+      <c r="B681" s="102"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="102"/>
+      <c r="B682" s="102"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="102"/>
+      <c r="B683" s="102"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="102"/>
+      <c r="B684" s="102"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="102"/>
+      <c r="B685" s="102"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="102"/>
+      <c r="B686" s="102"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="102"/>
+      <c r="B687" s="102"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="102"/>
+      <c r="B688" s="102"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="102"/>
+      <c r="B689" s="102"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="102"/>
+      <c r="B690" s="102"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="102"/>
+      <c r="B691" s="102"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="102"/>
+      <c r="B692" s="102"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="102"/>
+      <c r="B693" s="102"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="102"/>
+      <c r="B694" s="102"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="102"/>
+      <c r="B695" s="102"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="102"/>
+      <c r="B696" s="102"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="102"/>
+      <c r="B697" s="102"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="102"/>
+      <c r="B698" s="102"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="102"/>
+      <c r="B699" s="102"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="102"/>
+      <c r="B700" s="102"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="102"/>
+      <c r="B701" s="102"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="102"/>
+      <c r="B702" s="102"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="102"/>
+      <c r="B703" s="102"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="102"/>
+      <c r="B704" s="102"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="102"/>
+      <c r="B705" s="102"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="102"/>
+      <c r="B706" s="102"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="102"/>
+      <c r="B707" s="102"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="102"/>
+      <c r="B708" s="102"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="102"/>
+      <c r="B709" s="102"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="102"/>
+      <c r="B710" s="102"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="102"/>
+      <c r="B711" s="102"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="102"/>
+      <c r="B712" s="102"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="102"/>
+      <c r="B713" s="102"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="102"/>
+      <c r="B714" s="102"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="102"/>
+      <c r="B715" s="102"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="102"/>
+      <c r="B716" s="102"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="102"/>
+      <c r="B717" s="102"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="102"/>
+      <c r="B718" s="102"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="102"/>
+      <c r="B719" s="102"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="102"/>
+      <c r="B720" s="102"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="102"/>
+      <c r="B721" s="102"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="102"/>
+      <c r="B722" s="102"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="102"/>
+      <c r="B723" s="102"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="102"/>
+      <c r="B724" s="102"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="102"/>
+      <c r="B725" s="102"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="102"/>
+      <c r="B726" s="102"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="102"/>
+      <c r="B727" s="102"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="102"/>
+      <c r="B728" s="102"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="102"/>
+      <c r="B729" s="102"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="102"/>
+      <c r="B730" s="102"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="102"/>
+      <c r="B731" s="102"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="102"/>
+      <c r="B732" s="102"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="102"/>
+      <c r="B733" s="102"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="102"/>
+      <c r="B734" s="102"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="102"/>
+      <c r="B735" s="102"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="102"/>
+      <c r="B736" s="102"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="102"/>
+      <c r="B737" s="102"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="102"/>
+      <c r="B738" s="102"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="102"/>
+      <c r="B739" s="102"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="102"/>
+      <c r="B740" s="102"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="102"/>
+      <c r="B741" s="102"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="102"/>
+      <c r="B742" s="102"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="102"/>
+      <c r="B743" s="102"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="102"/>
+      <c r="B744" s="102"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="102"/>
+      <c r="B745" s="102"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="102"/>
+      <c r="B746" s="102"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="102"/>
+      <c r="B747" s="102"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="102"/>
+      <c r="B748" s="102"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="102"/>
+      <c r="B749" s="102"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="102"/>
+      <c r="B750" s="102"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="102"/>
+      <c r="B751" s="102"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="102"/>
+      <c r="B752" s="102"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="102"/>
+      <c r="B753" s="102"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="102"/>
+      <c r="B754" s="102"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="102"/>
+      <c r="B755" s="102"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="102"/>
+      <c r="B756" s="102"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="102"/>
+      <c r="B757" s="102"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="102"/>
+      <c r="B758" s="102"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="102"/>
+      <c r="B759" s="102"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="102"/>
+      <c r="B760" s="102"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="102"/>
+      <c r="B761" s="102"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="102"/>
+      <c r="B762" s="102"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="102"/>
+      <c r="B763" s="102"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="102"/>
+      <c r="B764" s="102"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="102"/>
+      <c r="B765" s="102"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="102"/>
+      <c r="B766" s="102"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="102"/>
+      <c r="B767" s="102"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="102"/>
+      <c r="B768" s="102"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="102"/>
+      <c r="B769" s="102"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="102"/>
+      <c r="B770" s="102"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="102"/>
+      <c r="B771" s="102"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="102"/>
+      <c r="B772" s="102"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="102"/>
+      <c r="B773" s="102"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="102"/>
+      <c r="B774" s="102"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="102"/>
+      <c r="B775" s="102"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="102"/>
+      <c r="B776" s="102"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="102"/>
+      <c r="B777" s="102"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="102"/>
+      <c r="B778" s="102"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="102"/>
+      <c r="B779" s="102"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="102"/>
+      <c r="B780" s="102"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="102"/>
+      <c r="B781" s="102"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="102"/>
+      <c r="B782" s="102"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="102"/>
+      <c r="B783" s="102"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="102"/>
+      <c r="B784" s="102"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="102"/>
+      <c r="B785" s="102"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="102"/>
+      <c r="B786" s="102"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="102"/>
+      <c r="B787" s="102"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="102"/>
+      <c r="B788" s="102"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="102"/>
+      <c r="B789" s="102"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="102"/>
+      <c r="B790" s="102"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="102"/>
+      <c r="B791" s="102"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="102"/>
+      <c r="B792" s="102"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="102"/>
+      <c r="B793" s="102"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="102"/>
+      <c r="B794" s="102"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="102"/>
+      <c r="B795" s="102"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="102"/>
+      <c r="B796" s="102"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="102"/>
+      <c r="B797" s="102"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="102"/>
+      <c r="B798" s="102"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="102"/>
+      <c r="B799" s="102"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="102"/>
+      <c r="B800" s="102"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="102"/>
+      <c r="B801" s="102"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="102"/>
+      <c r="B802" s="102"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="102"/>
+      <c r="B803" s="102"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="102"/>
+      <c r="B804" s="102"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="102"/>
+      <c r="B805" s="102"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="102"/>
+      <c r="B806" s="102"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="102"/>
+      <c r="B807" s="102"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="102"/>
+      <c r="B808" s="102"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="102"/>
+      <c r="B809" s="102"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="102"/>
+      <c r="B810" s="102"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="102"/>
+      <c r="B811" s="102"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="102"/>
+      <c r="B812" s="102"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="102"/>
+      <c r="B813" s="102"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="102"/>
+      <c r="B814" s="102"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="102"/>
+      <c r="B815" s="102"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="102"/>
+      <c r="B816" s="102"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="102"/>
+      <c r="B817" s="102"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="102"/>
+      <c r="B818" s="102"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="102"/>
+      <c r="B819" s="102"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="102"/>
+      <c r="B820" s="102"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="102"/>
+      <c r="B821" s="102"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="102"/>
+      <c r="B822" s="102"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="102"/>
+      <c r="B823" s="102"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="102"/>
+      <c r="B824" s="102"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="102"/>
+      <c r="B825" s="102"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="102"/>
+      <c r="B826" s="102"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="102"/>
+      <c r="B827" s="102"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="102"/>
+      <c r="B828" s="102"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="102"/>
+      <c r="B829" s="102"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="102"/>
+      <c r="B830" s="102"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="102"/>
+      <c r="B831" s="102"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="102"/>
+      <c r="B832" s="102"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="102"/>
+      <c r="B833" s="102"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="102"/>
+      <c r="B834" s="102"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="102"/>
+      <c r="B835" s="102"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="102"/>
+      <c r="B836" s="102"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="102"/>
+      <c r="B837" s="102"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="102"/>
+      <c r="B838" s="102"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="102"/>
+      <c r="B839" s="102"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="102"/>
+      <c r="B840" s="102"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="102"/>
+      <c r="B841" s="102"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="102"/>
+      <c r="B842" s="102"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="102"/>
+      <c r="B843" s="102"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="102"/>
+      <c r="B844" s="102"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="102"/>
+      <c r="B845" s="102"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="102"/>
+      <c r="B846" s="102"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="102"/>
+      <c r="B847" s="102"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="102"/>
+      <c r="B848" s="102"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="102"/>
+      <c r="B849" s="102"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="102"/>
+      <c r="B850" s="102"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="102"/>
+      <c r="B851" s="102"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="102"/>
+      <c r="B852" s="102"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="102"/>
+      <c r="B853" s="102"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="102"/>
+      <c r="B854" s="102"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="102"/>
+      <c r="B855" s="102"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="102"/>
+      <c r="B856" s="102"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="102"/>
+      <c r="B857" s="102"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="102"/>
+      <c r="B858" s="102"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="102"/>
+      <c r="B859" s="102"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="102"/>
+      <c r="B860" s="102"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="102"/>
+      <c r="B861" s="102"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="102"/>
+      <c r="B862" s="102"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="102"/>
+      <c r="B863" s="102"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="102"/>
+      <c r="B864" s="102"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="102"/>
+      <c r="B865" s="102"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="102"/>
+      <c r="B866" s="102"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="102"/>
+      <c r="B867" s="102"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="102"/>
+      <c r="B868" s="102"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="102"/>
+      <c r="B869" s="102"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="102"/>
+      <c r="B870" s="102"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="102"/>
+      <c r="B871" s="102"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="102"/>
+      <c r="B872" s="102"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="102"/>
+      <c r="B873" s="102"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="102"/>
+      <c r="B874" s="102"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="102"/>
+      <c r="B875" s="102"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="102"/>
+      <c r="B876" s="102"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="102"/>
+      <c r="B877" s="102"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="102"/>
+      <c r="B878" s="102"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="102"/>
+      <c r="B879" s="102"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="102"/>
+      <c r="B880" s="102"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="102"/>
+      <c r="B881" s="102"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="102"/>
+      <c r="B882" s="102"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="102"/>
+      <c r="B883" s="102"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="102"/>
+      <c r="B884" s="102"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="102"/>
+      <c r="B885" s="102"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="102"/>
+      <c r="B886" s="102"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="102"/>
+      <c r="B887" s="102"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="102"/>
+      <c r="B888" s="102"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="102"/>
+      <c r="B889" s="102"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="102"/>
+      <c r="B890" s="102"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="102"/>
+      <c r="B891" s="102"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="102"/>
+      <c r="B892" s="102"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="102"/>
+      <c r="B893" s="102"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="102"/>
+      <c r="B894" s="102"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="102"/>
+      <c r="B895" s="102"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="102"/>
+      <c r="B896" s="102"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="102"/>
+      <c r="B897" s="102"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="102"/>
+      <c r="B898" s="102"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="102"/>
+      <c r="B899" s="102"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="102"/>
+      <c r="B900" s="102"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="102"/>
+      <c r="B901" s="102"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="102"/>
+      <c r="B902" s="102"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="102"/>
+      <c r="B903" s="102"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="102"/>
+      <c r="B904" s="102"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="102"/>
+      <c r="B905" s="102"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="102"/>
+      <c r="B906" s="102"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="102"/>
+      <c r="B907" s="102"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="102"/>
+      <c r="B908" s="102"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="102"/>
+      <c r="B909" s="102"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="102"/>
+      <c r="B910" s="102"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="102"/>
+      <c r="B911" s="102"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="102"/>
+      <c r="B912" s="102"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="102"/>
+      <c r="B913" s="102"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="102"/>
+      <c r="B914" s="102"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="102"/>
+      <c r="B915" s="102"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="102"/>
+      <c r="B916" s="102"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="102"/>
+      <c r="B917" s="102"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="102"/>
+      <c r="B918" s="102"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="102"/>
+      <c r="B919" s="102"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="102"/>
+      <c r="B920" s="102"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="102"/>
+      <c r="B921" s="102"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="102"/>
+      <c r="B922" s="102"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="102"/>
+      <c r="B923" s="102"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="102"/>
+      <c r="B924" s="102"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="102"/>
+      <c r="B925" s="102"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="102"/>
+      <c r="B926" s="102"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="102"/>
+      <c r="B927" s="102"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="102"/>
+      <c r="B928" s="102"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="102"/>
+      <c r="B929" s="102"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="102"/>
+      <c r="B930" s="102"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="102"/>
+      <c r="B931" s="102"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="102"/>
+      <c r="B932" s="102"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="102"/>
+      <c r="B933" s="102"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="102"/>
+      <c r="B934" s="102"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="102"/>
+      <c r="B935" s="102"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="102"/>
+      <c r="B936" s="102"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="102"/>
+      <c r="B937" s="102"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="102"/>
+      <c r="B938" s="102"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="102"/>
+      <c r="B939" s="102"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="102"/>
+      <c r="B940" s="102"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="102"/>
+      <c r="B941" s="102"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="102"/>
+      <c r="B942" s="102"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="102"/>
+      <c r="B943" s="102"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="102"/>
+      <c r="B944" s="102"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="102"/>
+      <c r="B945" s="102"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="102"/>
+      <c r="B946" s="102"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="102"/>
+      <c r="B947" s="102"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="102"/>
+      <c r="B948" s="102"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="102"/>
+      <c r="B949" s="102"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="102"/>
+      <c r="B950" s="102"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="102"/>
+      <c r="B951" s="102"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="102"/>
+      <c r="B952" s="102"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="102"/>
+      <c r="B953" s="102"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="102"/>
+      <c r="B954" s="102"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="102"/>
+      <c r="B955" s="102"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="102"/>
+      <c r="B956" s="102"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="102"/>
+      <c r="B957" s="102"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="102"/>
+      <c r="B958" s="102"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="102"/>
+      <c r="B959" s="102"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="102"/>
+      <c r="B960" s="102"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="102"/>
+      <c r="B961" s="102"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="102"/>
+      <c r="B962" s="102"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="102"/>
+      <c r="B963" s="102"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="102"/>
+      <c r="B964" s="102"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="102"/>
+      <c r="B965" s="102"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="102"/>
+      <c r="B966" s="102"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="102"/>
+      <c r="B967" s="102"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="102"/>
+      <c r="B968" s="102"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="102"/>
+      <c r="B969" s="102"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="102"/>
+      <c r="B970" s="102"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="102"/>
+      <c r="B971" s="102"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="102"/>
+      <c r="B972" s="102"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="102"/>
+      <c r="B973" s="102"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="102"/>
+      <c r="B974" s="102"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="102"/>
+      <c r="B975" s="102"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="102"/>
+      <c r="B976" s="102"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="102"/>
+      <c r="B977" s="102"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="102"/>
+      <c r="B978" s="102"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="102"/>
+      <c r="B979" s="102"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="102"/>
+      <c r="B980" s="102"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="102"/>
+      <c r="B981" s="102"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="102"/>
+      <c r="B982" s="102"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="102"/>
+      <c r="B983" s="102"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="102"/>
+      <c r="B984" s="102"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="102"/>
+      <c r="B985" s="102"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="102"/>
+      <c r="B986" s="102"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="102"/>
+      <c r="B987" s="102"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="102"/>
+      <c r="B988" s="102"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="102"/>
+      <c r="B989" s="102"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="102"/>
+      <c r="B990" s="102"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="102"/>
+      <c r="B991" s="102"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="102"/>
+      <c r="B992" s="102"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="102"/>
+      <c r="B993" s="102"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="102"/>
+      <c r="B994" s="102"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="102"/>
+      <c r="B995" s="102"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="102"/>
+      <c r="B996" s="102"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="102"/>
+      <c r="B997" s="102"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="102"/>
+      <c r="B998" s="102"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="102"/>
+      <c r="B999" s="102"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="102"/>
+      <c r="B1000" s="102"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/source/Journals.xlsx
+++ b/source/Journals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="526">
   <si>
     <t>Journal</t>
   </si>
@@ -1154,6 +1154,21 @@
   </si>
   <si>
     <t>First decision &lt;= 45 days, time to publish: 19 weeks</t>
+  </si>
+  <si>
+    <t>Scandinavian Journal of Statistics</t>
+  </si>
+  <si>
+    <t>3500 USD</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=14072&amp;tip=sid</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/sjos.70000</t>
+  </si>
+  <si>
+    <t>First decision &lt;= 10 days, time to publish: 368 days</t>
   </si>
   <si>
     <t>Биостатистика</t>
@@ -4365,74 +4380,74 @@
       <c r="G72" s="12"/>
     </row>
     <row r="73">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="26"/>
+      <c r="A73" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>306</v>
+      </c>
       <c r="G73" s="12"/>
     </row>
     <row r="74">
-      <c r="A74" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="50"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="12"/>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="12"/>
+      <c r="A75" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="50"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="51" t="s">
-        <v>9</v>
+      <c r="C76" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="F76" s="9"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>312</v>
+      <c r="C77" s="51" t="s">
+        <v>9</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>313</v>
@@ -4440,7 +4455,7 @@
       <c r="E77" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="11" t="s">
         <v>315</v>
       </c>
       <c r="G77" s="12"/>
@@ -4453,33 +4468,33 @@
         <v>8</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="F78" s="11" t="s">
         <v>319</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>320</v>
       </c>
       <c r="G78" s="12"/>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B79" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D79" s="16" t="s">
+      <c r="C79" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="15" t="s">
         <v>323</v>
       </c>
       <c r="F79" s="11" t="s">
@@ -4491,40 +4506,40 @@
       <c r="A80" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="D80" s="16" t="s">
         <v>327</v>
       </c>
+      <c r="E80" s="23" t="s">
+        <v>328</v>
+      </c>
       <c r="F80" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G80" s="12"/>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="B81" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="F81" s="52" t="s">
+      <c r="F81" s="11" t="s">
         <v>333</v>
       </c>
       <c r="G81" s="12"/>
@@ -4533,67 +4548,67 @@
       <c r="A82" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F82" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="F83" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="F83" s="11" t="s">
+        <v>342</v>
+      </c>
       <c r="G83" s="12"/>
     </row>
     <row r="84">
-      <c r="A84" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="A84" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="B84" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="E84" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="9" t="s">
         <v>346</v>
       </c>
       <c r="G84" s="12"/>
     </row>
     <row r="85">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="54" t="s">
         <v>347</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -4602,10 +4617,10 @@
       <c r="C85" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="44" t="s">
         <v>350</v>
       </c>
       <c r="F85" s="24" t="s">
@@ -4614,22 +4629,22 @@
       <c r="G85" s="12"/>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="55" t="s">
         <v>352</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="24" t="s">
         <v>356</v>
       </c>
       <c r="G86" s="12"/>
@@ -4639,52 +4654,52 @@
         <v>357</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>358</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="G87" s="12"/>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="24" t="s">
-        <v>182</v>
+      <c r="C88" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="G88" s="12"/>
     </row>
     <row r="89">
-      <c r="A89" s="27" t="s">
-        <v>364</v>
+      <c r="A89" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>365</v>
+        <v>182</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>366</v>
@@ -4698,159 +4713,159 @@
       <c r="G89" s="12"/>
     </row>
     <row r="90">
-      <c r="A90" s="56" t="s">
+      <c r="A90" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B91" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="D91" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="F90" s="56" t="s">
+      <c r="E91" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="F91" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="G90" s="60"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="61"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="42"/>
+      <c r="G91" s="60"/>
     </row>
     <row r="92">
-      <c r="A92" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="50"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="42"/>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B93" s="8" t="s">
+      <c r="A93" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="50"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="30"/>
+      <c r="D94" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="F94" s="26"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95">
-      <c r="A95" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="E95" s="49"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="50"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="12"/>
     </row>
     <row r="96">
-      <c r="A96" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F96" s="11" t="s">
+      <c r="A96" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="G96" s="12"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="50"/>
     </row>
     <row r="97">
-      <c r="A97" s="7" t="s">
-        <v>380</v>
+      <c r="A97" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E97" s="63" t="s">
-        <v>55</v>
+      <c r="E97" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G97" s="12"/>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E98" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="F98" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>389</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>390</v>
@@ -4858,92 +4873,92 @@
       <c r="E99" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="24" t="s">
         <v>392</v>
       </c>
       <c r="G99" s="12"/>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="27" t="s">
         <v>393</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="E100" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="F100" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="9"/>
+      <c r="D101" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>401</v>
+      </c>
       <c r="G101" s="12"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B102" s="46"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="49"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="50"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="12"/>
     </row>
     <row r="103">
-      <c r="A103" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B103" s="46"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="E103" s="49"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="50"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C104" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="E104" s="65" t="s">
+      <c r="E104" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="11" t="s">
         <v>407</v>
       </c>
       <c r="G104" s="12"/>
@@ -4952,8 +4967,8 @@
       <c r="A105" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>30</v>
+      <c r="B105" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>409</v>
@@ -4962,174 +4977,174 @@
         <v>410</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>411</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="G105" s="12"/>
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E106" s="65" t="s">
         <v>411</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>414</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="E107" s="67" t="s">
         <v>418</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>419</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="E108" s="67" t="s">
+        <v>423</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B110" s="8" t="s">
+      <c r="A110" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>429</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>429</v>
+      <c r="C111" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="E111" s="23" t="s">
         <v>431</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>436</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>438</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="F113" s="9"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>441</v>
@@ -5137,28 +5152,28 @@
       <c r="E114" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="F114" s="26"/>
+      <c r="F114" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="G114" s="12"/>
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="F115" s="24" t="s">
         <v>447</v>
       </c>
+      <c r="F115" s="26"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116">
@@ -5166,87 +5181,99 @@
         <v>448</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F116" s="26"/>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B117" s="14" t="s">
+      <c r="C117" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F117" s="26"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C118" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D117" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="E117" s="15" t="s">
+      <c r="D118" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="55" t="s">
-        <v>454</v>
-      </c>
-      <c r="B118" s="8" t="s">
+      <c r="F118" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C119" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="7" t="s">
+      <c r="D119" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B120" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C120" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D119" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="65"/>
+      <c r="D120" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>464</v>
+      </c>
       <c r="F120" s="9"/>
       <c r="G120" s="12"/>
     </row>
@@ -5262,7 +5289,7 @@
     <row r="122">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="26"/>
+      <c r="C122" s="9"/>
       <c r="D122" s="65"/>
       <c r="E122" s="65"/>
       <c r="F122" s="9"/>
@@ -5271,7 +5298,7 @@
     <row r="123">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="11"/>
+      <c r="C123" s="26"/>
       <c r="D123" s="65"/>
       <c r="E123" s="65"/>
       <c r="F123" s="9"/>
@@ -5306,7 +5333,7 @@
     </row>
     <row r="127">
       <c r="A127" s="13"/>
-      <c r="B127" s="68"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="11"/>
       <c r="D127" s="65"/>
       <c r="E127" s="65"/>
@@ -5315,7 +5342,7 @@
     </row>
     <row r="128">
       <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
+      <c r="B128" s="68"/>
       <c r="C128" s="11"/>
       <c r="D128" s="65"/>
       <c r="E128" s="65"/>
@@ -5325,7 +5352,7 @@
     <row r="129">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="9"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="65"/>
       <c r="E129" s="65"/>
       <c r="F129" s="9"/>
@@ -14051,6 +14078,15 @@
       <c r="E1098" s="65"/>
       <c r="F1098" s="9"/>
       <c r="G1098" s="12"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="13"/>
+      <c r="B1099" s="14"/>
+      <c r="C1099" s="9"/>
+      <c r="D1099" s="65"/>
+      <c r="E1099" s="65"/>
+      <c r="F1099" s="9"/>
+      <c r="G1099" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14208,96 +14244,99 @@
     <hyperlink r:id="rId152" ref="C72"/>
     <hyperlink r:id="rId153" ref="D72"/>
     <hyperlink r:id="rId154" ref="E72"/>
-    <hyperlink r:id="rId155" ref="D75"/>
-    <hyperlink r:id="rId156" ref="E75"/>
-    <hyperlink r:id="rId157" ref="D76"/>
-    <hyperlink r:id="rId158" ref="E76"/>
-    <hyperlink r:id="rId159" ref="D77"/>
-    <hyperlink r:id="rId160" ref="E77"/>
-    <hyperlink r:id="rId161" ref="F77"/>
+    <hyperlink r:id="rId155" ref="C73"/>
+    <hyperlink r:id="rId156" ref="D73"/>
+    <hyperlink r:id="rId157" ref="E73"/>
+    <hyperlink r:id="rId158" ref="D76"/>
+    <hyperlink r:id="rId159" ref="E76"/>
+    <hyperlink r:id="rId160" ref="D77"/>
+    <hyperlink r:id="rId161" ref="E77"/>
     <hyperlink r:id="rId162" ref="D78"/>
     <hyperlink r:id="rId163" ref="E78"/>
-    <hyperlink r:id="rId164" ref="D79"/>
-    <hyperlink r:id="rId165" ref="E79"/>
-    <hyperlink r:id="rId166" ref="D80"/>
-    <hyperlink r:id="rId167" ref="E80"/>
-    <hyperlink r:id="rId168" ref="D81"/>
-    <hyperlink r:id="rId169" ref="E81"/>
-    <hyperlink r:id="rId170" ref="D82"/>
-    <hyperlink r:id="rId171" ref="E82"/>
-    <hyperlink r:id="rId172" location="callForPapersHeader" ref="D83"/>
-    <hyperlink r:id="rId173" ref="E83"/>
-    <hyperlink r:id="rId174" ref="D84"/>
-    <hyperlink r:id="rId175" ref="F84"/>
-    <hyperlink r:id="rId176" ref="D85"/>
-    <hyperlink r:id="rId177" ref="E85"/>
+    <hyperlink r:id="rId164" ref="F78"/>
+    <hyperlink r:id="rId165" ref="D79"/>
+    <hyperlink r:id="rId166" ref="E79"/>
+    <hyperlink r:id="rId167" ref="D80"/>
+    <hyperlink r:id="rId168" ref="E80"/>
+    <hyperlink r:id="rId169" ref="D81"/>
+    <hyperlink r:id="rId170" ref="E81"/>
+    <hyperlink r:id="rId171" ref="D82"/>
+    <hyperlink r:id="rId172" ref="E82"/>
+    <hyperlink r:id="rId173" ref="D83"/>
+    <hyperlink r:id="rId174" ref="E83"/>
+    <hyperlink r:id="rId175" location="callForPapersHeader" ref="D84"/>
+    <hyperlink r:id="rId176" ref="E84"/>
+    <hyperlink r:id="rId177" ref="D85"/>
     <hyperlink r:id="rId178" ref="F85"/>
     <hyperlink r:id="rId179" ref="D86"/>
     <hyperlink r:id="rId180" ref="E86"/>
-    <hyperlink r:id="rId181" ref="D87"/>
-    <hyperlink r:id="rId182" ref="E87"/>
-    <hyperlink r:id="rId183" ref="C88"/>
+    <hyperlink r:id="rId181" ref="F86"/>
+    <hyperlink r:id="rId182" ref="D87"/>
+    <hyperlink r:id="rId183" ref="E87"/>
     <hyperlink r:id="rId184" ref="D88"/>
     <hyperlink r:id="rId185" ref="E88"/>
-    <hyperlink r:id="rId186" ref="F88"/>
-    <hyperlink r:id="rId187" ref="C89"/>
-    <hyperlink r:id="rId188" ref="D89"/>
-    <hyperlink r:id="rId189" ref="E89"/>
-    <hyperlink r:id="rId190" ref="F89"/>
+    <hyperlink r:id="rId186" ref="C89"/>
+    <hyperlink r:id="rId187" ref="D89"/>
+    <hyperlink r:id="rId188" ref="E89"/>
+    <hyperlink r:id="rId189" ref="F89"/>
+    <hyperlink r:id="rId190" ref="C90"/>
     <hyperlink r:id="rId191" ref="D90"/>
     <hyperlink r:id="rId192" ref="E90"/>
-    <hyperlink r:id="rId193" ref="D93"/>
-    <hyperlink r:id="rId194" ref="E93"/>
-    <hyperlink r:id="rId195" ref="D95"/>
-    <hyperlink r:id="rId196" ref="D96"/>
-    <hyperlink r:id="rId197" ref="E96"/>
-    <hyperlink r:id="rId198" ref="D97"/>
-    <hyperlink r:id="rId199" ref="D98"/>
-    <hyperlink r:id="rId200" ref="E98"/>
-    <hyperlink r:id="rId201" ref="F98"/>
-    <hyperlink r:id="rId202" ref="C99"/>
-    <hyperlink r:id="rId203" ref="D99"/>
-    <hyperlink r:id="rId204" ref="E99"/>
-    <hyperlink r:id="rId205" ref="D100"/>
-    <hyperlink r:id="rId206" ref="E100"/>
-    <hyperlink r:id="rId207" ref="F100"/>
-    <hyperlink r:id="rId208" ref="D102"/>
-    <hyperlink r:id="rId209" ref="D103"/>
-    <hyperlink r:id="rId210" ref="E103"/>
-    <hyperlink r:id="rId211" ref="D104"/>
-    <hyperlink r:id="rId212" ref="D105"/>
-    <hyperlink r:id="rId213" ref="D106"/>
-    <hyperlink r:id="rId214" ref="E106"/>
-    <hyperlink r:id="rId215" ref="D107"/>
-    <hyperlink r:id="rId216" ref="E107"/>
-    <hyperlink r:id="rId217" ref="D108"/>
-    <hyperlink r:id="rId218" ref="E108"/>
-    <hyperlink r:id="rId219" ref="D109"/>
-    <hyperlink r:id="rId220" ref="E109"/>
-    <hyperlink r:id="rId221" ref="D110"/>
-    <hyperlink r:id="rId222" ref="E110"/>
-    <hyperlink r:id="rId223" ref="D111"/>
-    <hyperlink r:id="rId224" ref="E111"/>
-    <hyperlink r:id="rId225" ref="D112"/>
-    <hyperlink r:id="rId226" ref="E112"/>
-    <hyperlink r:id="rId227" ref="D113"/>
-    <hyperlink r:id="rId228" ref="E113"/>
-    <hyperlink r:id="rId229" ref="F113"/>
+    <hyperlink r:id="rId193" ref="F90"/>
+    <hyperlink r:id="rId194" ref="D91"/>
+    <hyperlink r:id="rId195" ref="E91"/>
+    <hyperlink r:id="rId196" ref="D94"/>
+    <hyperlink r:id="rId197" ref="E94"/>
+    <hyperlink r:id="rId198" ref="D96"/>
+    <hyperlink r:id="rId199" ref="D97"/>
+    <hyperlink r:id="rId200" ref="E97"/>
+    <hyperlink r:id="rId201" ref="D98"/>
+    <hyperlink r:id="rId202" ref="D99"/>
+    <hyperlink r:id="rId203" ref="E99"/>
+    <hyperlink r:id="rId204" ref="F99"/>
+    <hyperlink r:id="rId205" ref="C100"/>
+    <hyperlink r:id="rId206" ref="D100"/>
+    <hyperlink r:id="rId207" ref="E100"/>
+    <hyperlink r:id="rId208" ref="D101"/>
+    <hyperlink r:id="rId209" ref="E101"/>
+    <hyperlink r:id="rId210" ref="F101"/>
+    <hyperlink r:id="rId211" ref="D103"/>
+    <hyperlink r:id="rId212" ref="D104"/>
+    <hyperlink r:id="rId213" ref="E104"/>
+    <hyperlink r:id="rId214" ref="D105"/>
+    <hyperlink r:id="rId215" ref="D106"/>
+    <hyperlink r:id="rId216" ref="D107"/>
+    <hyperlink r:id="rId217" ref="E107"/>
+    <hyperlink r:id="rId218" ref="D108"/>
+    <hyperlink r:id="rId219" ref="E108"/>
+    <hyperlink r:id="rId220" ref="D109"/>
+    <hyperlink r:id="rId221" ref="E109"/>
+    <hyperlink r:id="rId222" ref="D110"/>
+    <hyperlink r:id="rId223" ref="E110"/>
+    <hyperlink r:id="rId224" ref="D111"/>
+    <hyperlink r:id="rId225" ref="E111"/>
+    <hyperlink r:id="rId226" ref="D112"/>
+    <hyperlink r:id="rId227" ref="E112"/>
+    <hyperlink r:id="rId228" ref="D113"/>
+    <hyperlink r:id="rId229" ref="E113"/>
     <hyperlink r:id="rId230" ref="D114"/>
     <hyperlink r:id="rId231" ref="E114"/>
-    <hyperlink r:id="rId232" ref="D115"/>
-    <hyperlink r:id="rId233" ref="E115"/>
-    <hyperlink r:id="rId234" ref="F115"/>
+    <hyperlink r:id="rId232" ref="F114"/>
+    <hyperlink r:id="rId233" ref="D115"/>
+    <hyperlink r:id="rId234" ref="E115"/>
     <hyperlink r:id="rId235" ref="D116"/>
     <hyperlink r:id="rId236" ref="E116"/>
-    <hyperlink r:id="rId237" ref="D117"/>
-    <hyperlink r:id="rId238" ref="E117"/>
-    <hyperlink r:id="rId239" ref="D118"/>
-    <hyperlink r:id="rId240" ref="E118"/>
-    <hyperlink r:id="rId241" ref="D119"/>
-    <hyperlink r:id="rId242" ref="E119"/>
+    <hyperlink r:id="rId237" ref="F116"/>
+    <hyperlink r:id="rId238" ref="D117"/>
+    <hyperlink r:id="rId239" ref="E117"/>
+    <hyperlink r:id="rId240" ref="D118"/>
+    <hyperlink r:id="rId241" ref="E118"/>
+    <hyperlink r:id="rId242" ref="D119"/>
+    <hyperlink r:id="rId243" ref="E119"/>
+    <hyperlink r:id="rId244" ref="D120"/>
+    <hyperlink r:id="rId245" ref="E120"/>
   </hyperlinks>
-  <drawing r:id="rId243"/>
+  <drawing r:id="rId246"/>
 </worksheet>
 </file>
 
@@ -14335,7 +14374,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -14360,27 +14399,27 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B2" s="75">
         <v>3.0</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B3" s="79">
         <v>45353.0</v>
@@ -14389,16 +14428,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F3" s="81"/>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B4" s="75">
         <v>3.0</v>
@@ -14407,16 +14446,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F4" s="81"/>
     </row>
     <row r="5">
       <c r="A5" s="74" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B5" s="75">
         <v>3.0</v>
@@ -14425,33 +14464,33 @@
         <v>9</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B6" s="75">
         <v>3.0</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7">
@@ -22438,22 +22477,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -22478,22 +22517,22 @@
     </row>
     <row r="2">
       <c r="A2" s="86" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F2" s="86" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
@@ -22686,7 +22725,7 @@
     </row>
     <row r="9">
       <c r="A9" s="86" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
@@ -22716,7 +22755,7 @@
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B10" s="88"/>
       <c r="C10" s="88"/>
@@ -26264,39 +26303,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="92" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D2" s="93">
         <v>45746.0</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -26321,42 +26360,42 @@
     <row r="1">
       <c r="A1" s="96"/>
       <c r="B1" s="97" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C1" s="96"/>
     </row>
     <row r="2">
       <c r="A2" s="96"/>
       <c r="B2" s="98" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C2" s="96"/>
     </row>
     <row r="3">
       <c r="A3" s="96"/>
       <c r="B3" s="98" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C3" s="96"/>
     </row>
     <row r="4">
       <c r="A4" s="96"/>
       <c r="B4" s="98" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C4" s="96"/>
     </row>
     <row r="5">
       <c r="A5" s="96"/>
       <c r="B5" s="98" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C5" s="96"/>
     </row>
     <row r="6">
       <c r="A6" s="99"/>
       <c r="B6" s="98" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C6" s="96"/>
     </row>
@@ -26389,82 +26428,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="100" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="101" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="101" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="101" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="101" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="101" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="101" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="101" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B8" s="101" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="101" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="101" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11">

--- a/source/Journals.xlsx
+++ b/source/Journals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="530">
   <si>
     <t>Journal</t>
   </si>
@@ -911,7 +911,7 @@
     <t>Foundations and Trends® in Machine Learning</t>
   </si>
   <si>
-    <t>$860</t>
+    <t>860 EUR</t>
   </si>
   <si>
     <t>https://www.nowpublishers.com/MAL</t>
@@ -1955,6 +1955,18 @@
   </si>
   <si>
     <t>Ревью за 4 недели (+50 USD)</t>
+  </si>
+  <si>
+    <t>International Journal of Computational Science and Engineering</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=6100152804&amp;tip=sid</t>
+  </si>
+  <si>
+    <t>https://www.inderscience.com/info/inarticle.php?artid=107348</t>
+  </si>
+  <si>
+    <t>Второй источник статей</t>
   </si>
   <si>
     <t>Conference</t>
@@ -4035,7 +4047,7 @@
       <c r="B56" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="24" t="s">
         <v>229</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -14203,140 +14215,141 @@
     <hyperlink r:id="rId111" ref="D55"/>
     <hyperlink r:id="rId112" ref="E55"/>
     <hyperlink r:id="rId113" ref="F55"/>
-    <hyperlink r:id="rId114" ref="D56"/>
-    <hyperlink r:id="rId115" ref="D57"/>
-    <hyperlink r:id="rId116" ref="E57"/>
-    <hyperlink r:id="rId117" location="1069-2509" ref="C58"/>
-    <hyperlink r:id="rId118" location="open-access" ref="D58"/>
-    <hyperlink r:id="rId119" location="1069-2509" ref="F58"/>
-    <hyperlink r:id="rId120" ref="C59"/>
-    <hyperlink r:id="rId121" ref="D59"/>
-    <hyperlink r:id="rId122" ref="E59"/>
-    <hyperlink r:id="rId123" ref="D60"/>
-    <hyperlink r:id="rId124" ref="E60"/>
-    <hyperlink r:id="rId125" ref="D61"/>
-    <hyperlink r:id="rId126" ref="E61"/>
-    <hyperlink r:id="rId127" ref="C62"/>
-    <hyperlink r:id="rId128" ref="D62"/>
-    <hyperlink r:id="rId129" location="Fees%20and%20funding" ref="C63"/>
-    <hyperlink r:id="rId130" ref="D63"/>
-    <hyperlink r:id="rId131" ref="E63"/>
-    <hyperlink r:id="rId132" ref="C64"/>
-    <hyperlink r:id="rId133" ref="D64"/>
-    <hyperlink r:id="rId134" ref="E64"/>
-    <hyperlink r:id="rId135" ref="F64"/>
-    <hyperlink r:id="rId136" ref="C65"/>
-    <hyperlink r:id="rId137" ref="D65"/>
-    <hyperlink r:id="rId138" ref="D66"/>
-    <hyperlink r:id="rId139" ref="E66"/>
-    <hyperlink r:id="rId140" ref="C67"/>
-    <hyperlink r:id="rId141" ref="D67"/>
-    <hyperlink r:id="rId142" ref="E67"/>
-    <hyperlink r:id="rId143" ref="C68"/>
-    <hyperlink r:id="rId144" ref="D68"/>
-    <hyperlink r:id="rId145" ref="E68"/>
-    <hyperlink r:id="rId146" ref="D69"/>
-    <hyperlink r:id="rId147" ref="E69"/>
-    <hyperlink r:id="rId148" ref="D70"/>
-    <hyperlink r:id="rId149" ref="E70"/>
-    <hyperlink r:id="rId150" ref="C71"/>
-    <hyperlink r:id="rId151" ref="D71"/>
-    <hyperlink r:id="rId152" ref="C72"/>
-    <hyperlink r:id="rId153" ref="D72"/>
-    <hyperlink r:id="rId154" ref="E72"/>
-    <hyperlink r:id="rId155" ref="C73"/>
-    <hyperlink r:id="rId156" ref="D73"/>
-    <hyperlink r:id="rId157" ref="E73"/>
-    <hyperlink r:id="rId158" ref="D76"/>
-    <hyperlink r:id="rId159" ref="E76"/>
-    <hyperlink r:id="rId160" ref="D77"/>
-    <hyperlink r:id="rId161" ref="E77"/>
-    <hyperlink r:id="rId162" ref="D78"/>
-    <hyperlink r:id="rId163" ref="E78"/>
-    <hyperlink r:id="rId164" ref="F78"/>
-    <hyperlink r:id="rId165" ref="D79"/>
-    <hyperlink r:id="rId166" ref="E79"/>
-    <hyperlink r:id="rId167" ref="D80"/>
-    <hyperlink r:id="rId168" ref="E80"/>
-    <hyperlink r:id="rId169" ref="D81"/>
-    <hyperlink r:id="rId170" ref="E81"/>
-    <hyperlink r:id="rId171" ref="D82"/>
-    <hyperlink r:id="rId172" ref="E82"/>
-    <hyperlink r:id="rId173" ref="D83"/>
-    <hyperlink r:id="rId174" ref="E83"/>
-    <hyperlink r:id="rId175" location="callForPapersHeader" ref="D84"/>
-    <hyperlink r:id="rId176" ref="E84"/>
-    <hyperlink r:id="rId177" ref="D85"/>
-    <hyperlink r:id="rId178" ref="F85"/>
-    <hyperlink r:id="rId179" ref="D86"/>
-    <hyperlink r:id="rId180" ref="E86"/>
-    <hyperlink r:id="rId181" ref="F86"/>
-    <hyperlink r:id="rId182" ref="D87"/>
-    <hyperlink r:id="rId183" ref="E87"/>
-    <hyperlink r:id="rId184" ref="D88"/>
-    <hyperlink r:id="rId185" ref="E88"/>
-    <hyperlink r:id="rId186" ref="C89"/>
-    <hyperlink r:id="rId187" ref="D89"/>
-    <hyperlink r:id="rId188" ref="E89"/>
-    <hyperlink r:id="rId189" ref="F89"/>
-    <hyperlink r:id="rId190" ref="C90"/>
-    <hyperlink r:id="rId191" ref="D90"/>
-    <hyperlink r:id="rId192" ref="E90"/>
-    <hyperlink r:id="rId193" ref="F90"/>
-    <hyperlink r:id="rId194" ref="D91"/>
-    <hyperlink r:id="rId195" ref="E91"/>
-    <hyperlink r:id="rId196" ref="D94"/>
-    <hyperlink r:id="rId197" ref="E94"/>
-    <hyperlink r:id="rId198" ref="D96"/>
-    <hyperlink r:id="rId199" ref="D97"/>
-    <hyperlink r:id="rId200" ref="E97"/>
-    <hyperlink r:id="rId201" ref="D98"/>
-    <hyperlink r:id="rId202" ref="D99"/>
-    <hyperlink r:id="rId203" ref="E99"/>
-    <hyperlink r:id="rId204" ref="F99"/>
-    <hyperlink r:id="rId205" ref="C100"/>
-    <hyperlink r:id="rId206" ref="D100"/>
-    <hyperlink r:id="rId207" ref="E100"/>
-    <hyperlink r:id="rId208" ref="D101"/>
-    <hyperlink r:id="rId209" ref="E101"/>
-    <hyperlink r:id="rId210" ref="F101"/>
-    <hyperlink r:id="rId211" ref="D103"/>
-    <hyperlink r:id="rId212" ref="D104"/>
-    <hyperlink r:id="rId213" ref="E104"/>
-    <hyperlink r:id="rId214" ref="D105"/>
-    <hyperlink r:id="rId215" ref="D106"/>
-    <hyperlink r:id="rId216" ref="D107"/>
-    <hyperlink r:id="rId217" ref="E107"/>
-    <hyperlink r:id="rId218" ref="D108"/>
-    <hyperlink r:id="rId219" ref="E108"/>
-    <hyperlink r:id="rId220" ref="D109"/>
-    <hyperlink r:id="rId221" ref="E109"/>
-    <hyperlink r:id="rId222" ref="D110"/>
-    <hyperlink r:id="rId223" ref="E110"/>
-    <hyperlink r:id="rId224" ref="D111"/>
-    <hyperlink r:id="rId225" ref="E111"/>
-    <hyperlink r:id="rId226" ref="D112"/>
-    <hyperlink r:id="rId227" ref="E112"/>
-    <hyperlink r:id="rId228" ref="D113"/>
-    <hyperlink r:id="rId229" ref="E113"/>
-    <hyperlink r:id="rId230" ref="D114"/>
-    <hyperlink r:id="rId231" ref="E114"/>
-    <hyperlink r:id="rId232" ref="F114"/>
-    <hyperlink r:id="rId233" ref="D115"/>
-    <hyperlink r:id="rId234" ref="E115"/>
-    <hyperlink r:id="rId235" ref="D116"/>
-    <hyperlink r:id="rId236" ref="E116"/>
-    <hyperlink r:id="rId237" ref="F116"/>
-    <hyperlink r:id="rId238" ref="D117"/>
-    <hyperlink r:id="rId239" ref="E117"/>
-    <hyperlink r:id="rId240" ref="D118"/>
-    <hyperlink r:id="rId241" ref="E118"/>
-    <hyperlink r:id="rId242" ref="D119"/>
-    <hyperlink r:id="rId243" ref="E119"/>
-    <hyperlink r:id="rId244" ref="D120"/>
-    <hyperlink r:id="rId245" ref="E120"/>
+    <hyperlink r:id="rId114" ref="C56"/>
+    <hyperlink r:id="rId115" ref="D56"/>
+    <hyperlink r:id="rId116" ref="D57"/>
+    <hyperlink r:id="rId117" ref="E57"/>
+    <hyperlink r:id="rId118" location="1069-2509" ref="C58"/>
+    <hyperlink r:id="rId119" location="open-access" ref="D58"/>
+    <hyperlink r:id="rId120" location="1069-2509" ref="F58"/>
+    <hyperlink r:id="rId121" ref="C59"/>
+    <hyperlink r:id="rId122" ref="D59"/>
+    <hyperlink r:id="rId123" ref="E59"/>
+    <hyperlink r:id="rId124" ref="D60"/>
+    <hyperlink r:id="rId125" ref="E60"/>
+    <hyperlink r:id="rId126" ref="D61"/>
+    <hyperlink r:id="rId127" ref="E61"/>
+    <hyperlink r:id="rId128" ref="C62"/>
+    <hyperlink r:id="rId129" ref="D62"/>
+    <hyperlink r:id="rId130" location="Fees%20and%20funding" ref="C63"/>
+    <hyperlink r:id="rId131" ref="D63"/>
+    <hyperlink r:id="rId132" ref="E63"/>
+    <hyperlink r:id="rId133" ref="C64"/>
+    <hyperlink r:id="rId134" ref="D64"/>
+    <hyperlink r:id="rId135" ref="E64"/>
+    <hyperlink r:id="rId136" ref="F64"/>
+    <hyperlink r:id="rId137" ref="C65"/>
+    <hyperlink r:id="rId138" ref="D65"/>
+    <hyperlink r:id="rId139" ref="D66"/>
+    <hyperlink r:id="rId140" ref="E66"/>
+    <hyperlink r:id="rId141" ref="C67"/>
+    <hyperlink r:id="rId142" ref="D67"/>
+    <hyperlink r:id="rId143" ref="E67"/>
+    <hyperlink r:id="rId144" ref="C68"/>
+    <hyperlink r:id="rId145" ref="D68"/>
+    <hyperlink r:id="rId146" ref="E68"/>
+    <hyperlink r:id="rId147" ref="D69"/>
+    <hyperlink r:id="rId148" ref="E69"/>
+    <hyperlink r:id="rId149" ref="D70"/>
+    <hyperlink r:id="rId150" ref="E70"/>
+    <hyperlink r:id="rId151" ref="C71"/>
+    <hyperlink r:id="rId152" ref="D71"/>
+    <hyperlink r:id="rId153" ref="C72"/>
+    <hyperlink r:id="rId154" ref="D72"/>
+    <hyperlink r:id="rId155" ref="E72"/>
+    <hyperlink r:id="rId156" ref="C73"/>
+    <hyperlink r:id="rId157" ref="D73"/>
+    <hyperlink r:id="rId158" ref="E73"/>
+    <hyperlink r:id="rId159" ref="D76"/>
+    <hyperlink r:id="rId160" ref="E76"/>
+    <hyperlink r:id="rId161" ref="D77"/>
+    <hyperlink r:id="rId162" ref="E77"/>
+    <hyperlink r:id="rId163" ref="D78"/>
+    <hyperlink r:id="rId164" ref="E78"/>
+    <hyperlink r:id="rId165" ref="F78"/>
+    <hyperlink r:id="rId166" ref="D79"/>
+    <hyperlink r:id="rId167" ref="E79"/>
+    <hyperlink r:id="rId168" ref="D80"/>
+    <hyperlink r:id="rId169" ref="E80"/>
+    <hyperlink r:id="rId170" ref="D81"/>
+    <hyperlink r:id="rId171" ref="E81"/>
+    <hyperlink r:id="rId172" ref="D82"/>
+    <hyperlink r:id="rId173" ref="E82"/>
+    <hyperlink r:id="rId174" ref="D83"/>
+    <hyperlink r:id="rId175" ref="E83"/>
+    <hyperlink r:id="rId176" location="callForPapersHeader" ref="D84"/>
+    <hyperlink r:id="rId177" ref="E84"/>
+    <hyperlink r:id="rId178" ref="D85"/>
+    <hyperlink r:id="rId179" ref="F85"/>
+    <hyperlink r:id="rId180" ref="D86"/>
+    <hyperlink r:id="rId181" ref="E86"/>
+    <hyperlink r:id="rId182" ref="F86"/>
+    <hyperlink r:id="rId183" ref="D87"/>
+    <hyperlink r:id="rId184" ref="E87"/>
+    <hyperlink r:id="rId185" ref="D88"/>
+    <hyperlink r:id="rId186" ref="E88"/>
+    <hyperlink r:id="rId187" ref="C89"/>
+    <hyperlink r:id="rId188" ref="D89"/>
+    <hyperlink r:id="rId189" ref="E89"/>
+    <hyperlink r:id="rId190" ref="F89"/>
+    <hyperlink r:id="rId191" ref="C90"/>
+    <hyperlink r:id="rId192" ref="D90"/>
+    <hyperlink r:id="rId193" ref="E90"/>
+    <hyperlink r:id="rId194" ref="F90"/>
+    <hyperlink r:id="rId195" ref="D91"/>
+    <hyperlink r:id="rId196" ref="E91"/>
+    <hyperlink r:id="rId197" ref="D94"/>
+    <hyperlink r:id="rId198" ref="E94"/>
+    <hyperlink r:id="rId199" ref="D96"/>
+    <hyperlink r:id="rId200" ref="D97"/>
+    <hyperlink r:id="rId201" ref="E97"/>
+    <hyperlink r:id="rId202" ref="D98"/>
+    <hyperlink r:id="rId203" ref="D99"/>
+    <hyperlink r:id="rId204" ref="E99"/>
+    <hyperlink r:id="rId205" ref="F99"/>
+    <hyperlink r:id="rId206" ref="C100"/>
+    <hyperlink r:id="rId207" ref="D100"/>
+    <hyperlink r:id="rId208" ref="E100"/>
+    <hyperlink r:id="rId209" ref="D101"/>
+    <hyperlink r:id="rId210" ref="E101"/>
+    <hyperlink r:id="rId211" ref="F101"/>
+    <hyperlink r:id="rId212" ref="D103"/>
+    <hyperlink r:id="rId213" ref="D104"/>
+    <hyperlink r:id="rId214" ref="E104"/>
+    <hyperlink r:id="rId215" ref="D105"/>
+    <hyperlink r:id="rId216" ref="D106"/>
+    <hyperlink r:id="rId217" ref="D107"/>
+    <hyperlink r:id="rId218" ref="E107"/>
+    <hyperlink r:id="rId219" ref="D108"/>
+    <hyperlink r:id="rId220" ref="E108"/>
+    <hyperlink r:id="rId221" ref="D109"/>
+    <hyperlink r:id="rId222" ref="E109"/>
+    <hyperlink r:id="rId223" ref="D110"/>
+    <hyperlink r:id="rId224" ref="E110"/>
+    <hyperlink r:id="rId225" ref="D111"/>
+    <hyperlink r:id="rId226" ref="E111"/>
+    <hyperlink r:id="rId227" ref="D112"/>
+    <hyperlink r:id="rId228" ref="E112"/>
+    <hyperlink r:id="rId229" ref="D113"/>
+    <hyperlink r:id="rId230" ref="E113"/>
+    <hyperlink r:id="rId231" ref="D114"/>
+    <hyperlink r:id="rId232" ref="E114"/>
+    <hyperlink r:id="rId233" ref="F114"/>
+    <hyperlink r:id="rId234" ref="D115"/>
+    <hyperlink r:id="rId235" ref="E115"/>
+    <hyperlink r:id="rId236" ref="D116"/>
+    <hyperlink r:id="rId237" ref="E116"/>
+    <hyperlink r:id="rId238" ref="F116"/>
+    <hyperlink r:id="rId239" ref="D117"/>
+    <hyperlink r:id="rId240" ref="E117"/>
+    <hyperlink r:id="rId241" ref="D118"/>
+    <hyperlink r:id="rId242" ref="E118"/>
+    <hyperlink r:id="rId243" ref="D119"/>
+    <hyperlink r:id="rId244" ref="E119"/>
+    <hyperlink r:id="rId245" ref="D120"/>
+    <hyperlink r:id="rId246" ref="E120"/>
   </hyperlinks>
-  <drawing r:id="rId246"/>
+  <drawing r:id="rId247"/>
 </worksheet>
 </file>
 
@@ -14494,12 +14507,24 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="83"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="81"/>
+      <c r="A7" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" s="75">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>486</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="83"/>
@@ -22457,8 +22482,12 @@
     <hyperlink r:id="rId8" ref="D5"/>
     <hyperlink r:id="rId9" ref="D6"/>
     <hyperlink r:id="rId10" ref="E6"/>
+    <hyperlink r:id="rId11" ref="C7"/>
+    <hyperlink r:id="rId12" ref="D7"/>
+    <hyperlink r:id="rId13" ref="E7"/>
+    <hyperlink r:id="rId14" ref="F7"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -22477,22 +22506,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -22517,22 +22546,22 @@
     </row>
     <row r="2">
       <c r="A2" s="86" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" s="86" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
@@ -22725,7 +22754,7 @@
     </row>
     <row r="9">
       <c r="A9" s="86" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
@@ -22755,7 +22784,7 @@
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B10" s="88"/>
       <c r="C10" s="88"/>
@@ -26303,39 +26332,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="92" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D2" s="93">
         <v>45746.0</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -26360,42 +26389,42 @@
     <row r="1">
       <c r="A1" s="96"/>
       <c r="B1" s="97" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C1" s="96"/>
     </row>
     <row r="2">
       <c r="A2" s="96"/>
       <c r="B2" s="98" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C2" s="96"/>
     </row>
     <row r="3">
       <c r="A3" s="96"/>
       <c r="B3" s="98" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C3" s="96"/>
     </row>
     <row r="4">
       <c r="A4" s="96"/>
       <c r="B4" s="98" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C4" s="96"/>
     </row>
     <row r="5">
       <c r="A5" s="96"/>
       <c r="B5" s="98" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C5" s="96"/>
     </row>
     <row r="6">
       <c r="A6" s="99"/>
       <c r="B6" s="98" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C6" s="96"/>
     </row>
@@ -26428,82 +26457,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="100" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="101" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="101" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="101" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="101" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="101" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="101" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="101" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B8" s="101" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="101" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="101" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11">

--- a/source/Journals.xlsx
+++ b/source/Journals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="570">
   <si>
     <t>Journal</t>
   </si>
@@ -1190,6 +1190,34 @@
   </si>
   <si>
     <t>time to publish &lt;= 90 days</t>
+  </si>
+  <si>
+    <t>PLoS ONE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1000 USD</t>
+    </r>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0329589</t>
+  </si>
+  <si>
+    <t>time to publish ~ 200 days</t>
   </si>
   <si>
     <t>Decision Sciences</t>
@@ -4561,115 +4589,115 @@
       <c r="G75" s="12"/>
     </row>
     <row r="76">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="27"/>
+      <c r="A76" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>318</v>
+      </c>
       <c r="G76" s="12"/>
     </row>
     <row r="77">
-      <c r="A77" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="48"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="12"/>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="48"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C79" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="27"/>
+      <c r="D79" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>323</v>
+      </c>
       <c r="G79" s="12"/>
     </row>
     <row r="80">
-      <c r="A80" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="48"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="12"/>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="12"/>
+      <c r="A81" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="48"/>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="49" t="s">
-        <v>9</v>
+      <c r="C82" s="9" t="s">
+        <v>326</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>327</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F82" s="9"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>329</v>
+      <c r="C83" s="49" t="s">
+        <v>9</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>330</v>
@@ -4677,7 +4705,7 @@
       <c r="E83" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F83" s="11" t="s">
         <v>332</v>
       </c>
       <c r="G83" s="12"/>
@@ -4690,33 +4718,33 @@
         <v>8</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F84" s="11" t="s">
         <v>336</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>337</v>
       </c>
       <c r="G84" s="12"/>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B85" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D85" s="16" t="s">
+      <c r="C85" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E85" s="15" t="s">
         <v>340</v>
       </c>
       <c r="F85" s="11" t="s">
@@ -4728,40 +4756,40 @@
       <c r="A86" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="D86" s="16" t="s">
         <v>344</v>
       </c>
+      <c r="E86" s="24" t="s">
+        <v>345</v>
+      </c>
       <c r="F86" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G86" s="12"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="B87" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="F87" s="50" t="s">
+      <c r="F87" s="11" t="s">
         <v>350</v>
       </c>
       <c r="G87" s="12"/>
@@ -4770,67 +4798,67 @@
       <c r="A88" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="F89" s="9" t="s">
         <v>358</v>
       </c>
+      <c r="F89" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="G89" s="12"/>
     </row>
     <row r="90">
-      <c r="A90" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="11" t="s">
+      <c r="A90" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="B90" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="9" t="s">
         <v>363</v>
       </c>
       <c r="G90" s="12"/>
     </row>
     <row r="91">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="52" t="s">
         <v>364</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -4839,10 +4867,10 @@
       <c r="C91" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="30" t="s">
         <v>367</v>
       </c>
       <c r="F91" s="25" t="s">
@@ -4851,22 +4879,22 @@
       <c r="G91" s="12"/>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="53" t="s">
         <v>369</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="16" t="s">
         <v>371</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="25" t="s">
         <v>373</v>
       </c>
       <c r="G92" s="12"/>
@@ -4876,52 +4904,52 @@
         <v>374</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="G93" s="12"/>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="25" t="s">
-        <v>182</v>
+      <c r="C94" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="G94" s="12"/>
     </row>
     <row r="95">
-      <c r="A95" s="28" t="s">
-        <v>381</v>
+      <c r="A95" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>382</v>
+        <v>182</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>383</v>
@@ -4935,180 +4963,180 @@
       <c r="G95" s="12"/>
     </row>
     <row r="96">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B97" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="56" t="s">
+      <c r="D97" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="F96" s="54" t="s">
+      <c r="E97" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="F97" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="G96" s="58"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="G97" s="58"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C98" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="F97" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="59"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="41"/>
+      <c r="D98" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="G98" s="12"/>
     </row>
     <row r="99">
-      <c r="A99" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="48"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="41"/>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="48"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C101" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
+      <c r="D101" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>399</v>
+      </c>
       <c r="F101" s="27"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102">
-      <c r="A102" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="46" t="s">
-        <v>396</v>
-      </c>
-      <c r="E102" s="47"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="48"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="12"/>
     </row>
     <row r="103">
-      <c r="A103" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="F103" s="11" t="s">
+      <c r="A103" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="G103" s="12"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103" s="47"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="48"/>
     </row>
     <row r="104">
-      <c r="A104" s="7" t="s">
-        <v>401</v>
+      <c r="A104" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>402</v>
+        <v>293</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E104" s="62" t="s">
-        <v>55</v>
+      <c r="E104" s="26" t="s">
+        <v>404</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G104" s="12"/>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E105" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>410</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>411</v>
@@ -5116,92 +5144,92 @@
       <c r="E106" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="25" t="s">
         <v>413</v>
       </c>
       <c r="G106" s="12"/>
     </row>
     <row r="107">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="28" t="s">
         <v>414</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E107" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="F107" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="9"/>
+      <c r="D108" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E108" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>422</v>
+      </c>
       <c r="G108" s="12"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B109" s="44"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="65" t="s">
-        <v>419</v>
-      </c>
-      <c r="E109" s="47"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="48"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="12"/>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B110" s="8" t="s">
+      <c r="A110" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="E110" s="47"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="48"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C111" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="E111" s="64" t="s">
+      <c r="E111" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="11" t="s">
         <v>428</v>
       </c>
       <c r="G111" s="12"/>
@@ -5210,8 +5238,8 @@
       <c r="A112" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>30</v>
+      <c r="B112" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>430</v>
@@ -5220,174 +5248,174 @@
         <v>431</v>
       </c>
       <c r="E112" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="F112" s="9"/>
+        <v>432</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>433</v>
+      </c>
       <c r="G112" s="12"/>
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="E113" s="64" t="s">
         <v>432</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>435</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="E114" s="66" t="s">
         <v>439</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="E115" s="66" t="s">
+        <v>444</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116">
       <c r="A116" s="13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117">
-      <c r="A117" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B117" s="8" t="s">
+      <c r="A117" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>450</v>
+      <c r="C118" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="E118" s="24" t="s">
         <v>452</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>457</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>459</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="F120" s="9"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>462</v>
@@ -5395,28 +5423,28 @@
       <c r="E121" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F121" s="27"/>
+      <c r="F121" s="25" t="s">
+        <v>464</v>
+      </c>
       <c r="G121" s="12"/>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="F122" s="25" t="s">
         <v>468</v>
       </c>
+      <c r="F122" s="27"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123">
@@ -5424,87 +5452,99 @@
         <v>469</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="F123" s="27"/>
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="B124" s="14" t="s">
+      <c r="C124" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F124" s="27"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E124" s="15" t="s">
+      <c r="D125" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E125" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="53" t="s">
-        <v>475</v>
-      </c>
-      <c r="B125" s="8" t="s">
+      <c r="F125" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C126" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="F125" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="7" t="s">
+      <c r="D126" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B127" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C127" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
+      <c r="D127" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="F127" s="9"/>
       <c r="G127" s="12"/>
     </row>
@@ -5520,7 +5560,7 @@
     <row r="129">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="27"/>
+      <c r="C129" s="9"/>
       <c r="D129" s="64"/>
       <c r="E129" s="64"/>
       <c r="F129" s="9"/>
@@ -5529,7 +5569,7 @@
     <row r="130">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="11"/>
+      <c r="C130" s="27"/>
       <c r="D130" s="64"/>
       <c r="E130" s="64"/>
       <c r="F130" s="9"/>
@@ -5564,7 +5604,7 @@
     </row>
     <row r="134">
       <c r="A134" s="13"/>
-      <c r="B134" s="67"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="11"/>
       <c r="D134" s="64"/>
       <c r="E134" s="64"/>
@@ -5573,7 +5613,7 @@
     </row>
     <row r="135">
       <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="67"/>
       <c r="C135" s="11"/>
       <c r="D135" s="64"/>
       <c r="E135" s="64"/>
@@ -5583,7 +5623,7 @@
     <row r="136">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="9"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="64"/>
       <c r="E136" s="64"/>
       <c r="F136" s="9"/>
@@ -14309,6 +14349,15 @@
       <c r="E1105" s="64"/>
       <c r="F1105" s="9"/>
       <c r="G1105" s="12"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="13"/>
+      <c r="B1106" s="14"/>
+      <c r="C1106" s="9"/>
+      <c r="D1106" s="64"/>
+      <c r="E1106" s="64"/>
+      <c r="F1106" s="9"/>
+      <c r="G1106" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14477,102 +14526,106 @@
     <hyperlink r:id="rId163" ref="C75"/>
     <hyperlink r:id="rId164" ref="D75"/>
     <hyperlink r:id="rId165" ref="E75"/>
-    <hyperlink r:id="rId166" location="aims-and-scope" ref="C78"/>
-    <hyperlink r:id="rId167" ref="D78"/>
-    <hyperlink r:id="rId168" ref="E78"/>
-    <hyperlink r:id="rId169" ref="D81"/>
-    <hyperlink r:id="rId170" ref="E81"/>
-    <hyperlink r:id="rId171" ref="D82"/>
-    <hyperlink r:id="rId172" ref="E82"/>
-    <hyperlink r:id="rId173" ref="D83"/>
-    <hyperlink r:id="rId174" ref="E83"/>
-    <hyperlink r:id="rId175" ref="F83"/>
-    <hyperlink r:id="rId176" ref="D84"/>
-    <hyperlink r:id="rId177" ref="E84"/>
-    <hyperlink r:id="rId178" ref="D85"/>
-    <hyperlink r:id="rId179" ref="E85"/>
-    <hyperlink r:id="rId180" ref="D86"/>
-    <hyperlink r:id="rId181" ref="E86"/>
-    <hyperlink r:id="rId182" ref="D87"/>
-    <hyperlink r:id="rId183" ref="E87"/>
-    <hyperlink r:id="rId184" ref="D88"/>
-    <hyperlink r:id="rId185" ref="E88"/>
-    <hyperlink r:id="rId186" location="callForPapersHeader" ref="D89"/>
-    <hyperlink r:id="rId187" ref="E89"/>
-    <hyperlink r:id="rId188" ref="D90"/>
-    <hyperlink r:id="rId189" ref="F90"/>
-    <hyperlink r:id="rId190" ref="D91"/>
-    <hyperlink r:id="rId191" ref="E91"/>
-    <hyperlink r:id="rId192" ref="F91"/>
-    <hyperlink r:id="rId193" ref="D92"/>
-    <hyperlink r:id="rId194" ref="E92"/>
-    <hyperlink r:id="rId195" ref="D93"/>
-    <hyperlink r:id="rId196" ref="E93"/>
-    <hyperlink r:id="rId197" ref="C94"/>
-    <hyperlink r:id="rId198" ref="D94"/>
-    <hyperlink r:id="rId199" ref="E94"/>
-    <hyperlink r:id="rId200" ref="F94"/>
+    <hyperlink r:id="rId166" ref="C76"/>
+    <hyperlink r:id="rId167" ref="D76"/>
+    <hyperlink r:id="rId168" ref="E76"/>
+    <hyperlink r:id="rId169" ref="F76"/>
+    <hyperlink r:id="rId170" location="aims-and-scope" ref="C79"/>
+    <hyperlink r:id="rId171" ref="D79"/>
+    <hyperlink r:id="rId172" ref="E79"/>
+    <hyperlink r:id="rId173" ref="D82"/>
+    <hyperlink r:id="rId174" ref="E82"/>
+    <hyperlink r:id="rId175" ref="D83"/>
+    <hyperlink r:id="rId176" ref="E83"/>
+    <hyperlink r:id="rId177" ref="D84"/>
+    <hyperlink r:id="rId178" ref="E84"/>
+    <hyperlink r:id="rId179" ref="F84"/>
+    <hyperlink r:id="rId180" ref="D85"/>
+    <hyperlink r:id="rId181" ref="E85"/>
+    <hyperlink r:id="rId182" ref="D86"/>
+    <hyperlink r:id="rId183" ref="E86"/>
+    <hyperlink r:id="rId184" ref="D87"/>
+    <hyperlink r:id="rId185" ref="E87"/>
+    <hyperlink r:id="rId186" ref="D88"/>
+    <hyperlink r:id="rId187" ref="E88"/>
+    <hyperlink r:id="rId188" ref="D89"/>
+    <hyperlink r:id="rId189" ref="E89"/>
+    <hyperlink r:id="rId190" location="callForPapersHeader" ref="D90"/>
+    <hyperlink r:id="rId191" ref="E90"/>
+    <hyperlink r:id="rId192" ref="D91"/>
+    <hyperlink r:id="rId193" ref="F91"/>
+    <hyperlink r:id="rId194" ref="D92"/>
+    <hyperlink r:id="rId195" ref="E92"/>
+    <hyperlink r:id="rId196" ref="F92"/>
+    <hyperlink r:id="rId197" ref="D93"/>
+    <hyperlink r:id="rId198" ref="E93"/>
+    <hyperlink r:id="rId199" ref="D94"/>
+    <hyperlink r:id="rId200" ref="E94"/>
     <hyperlink r:id="rId201" ref="C95"/>
     <hyperlink r:id="rId202" ref="D95"/>
     <hyperlink r:id="rId203" ref="E95"/>
     <hyperlink r:id="rId204" ref="F95"/>
-    <hyperlink r:id="rId205" ref="D96"/>
-    <hyperlink r:id="rId206" ref="E96"/>
-    <hyperlink r:id="rId207" ref="C97"/>
-    <hyperlink r:id="rId208" ref="D97"/>
-    <hyperlink r:id="rId209" ref="E97"/>
-    <hyperlink r:id="rId210" ref="D100"/>
-    <hyperlink r:id="rId211" ref="E100"/>
-    <hyperlink r:id="rId212" ref="D102"/>
-    <hyperlink r:id="rId213" ref="D103"/>
-    <hyperlink r:id="rId214" ref="E103"/>
-    <hyperlink r:id="rId215" ref="D104"/>
-    <hyperlink r:id="rId216" ref="D105"/>
-    <hyperlink r:id="rId217" ref="E105"/>
-    <hyperlink r:id="rId218" ref="F105"/>
-    <hyperlink r:id="rId219" ref="C106"/>
+    <hyperlink r:id="rId205" ref="C96"/>
+    <hyperlink r:id="rId206" ref="D96"/>
+    <hyperlink r:id="rId207" ref="E96"/>
+    <hyperlink r:id="rId208" ref="F96"/>
+    <hyperlink r:id="rId209" ref="D97"/>
+    <hyperlink r:id="rId210" ref="E97"/>
+    <hyperlink r:id="rId211" ref="C98"/>
+    <hyperlink r:id="rId212" ref="D98"/>
+    <hyperlink r:id="rId213" ref="E98"/>
+    <hyperlink r:id="rId214" ref="D101"/>
+    <hyperlink r:id="rId215" ref="E101"/>
+    <hyperlink r:id="rId216" ref="D103"/>
+    <hyperlink r:id="rId217" ref="D104"/>
+    <hyperlink r:id="rId218" ref="E104"/>
+    <hyperlink r:id="rId219" ref="D105"/>
     <hyperlink r:id="rId220" ref="D106"/>
     <hyperlink r:id="rId221" ref="E106"/>
-    <hyperlink r:id="rId222" ref="D107"/>
-    <hyperlink r:id="rId223" ref="E107"/>
-    <hyperlink r:id="rId224" ref="F107"/>
-    <hyperlink r:id="rId225" ref="D109"/>
-    <hyperlink r:id="rId226" ref="D110"/>
-    <hyperlink r:id="rId227" ref="E110"/>
-    <hyperlink r:id="rId228" ref="D111"/>
-    <hyperlink r:id="rId229" ref="D112"/>
-    <hyperlink r:id="rId230" ref="D113"/>
-    <hyperlink r:id="rId231" ref="E113"/>
-    <hyperlink r:id="rId232" ref="D114"/>
-    <hyperlink r:id="rId233" ref="E114"/>
-    <hyperlink r:id="rId234" ref="D115"/>
-    <hyperlink r:id="rId235" ref="E115"/>
-    <hyperlink r:id="rId236" ref="D116"/>
-    <hyperlink r:id="rId237" ref="E116"/>
-    <hyperlink r:id="rId238" ref="D117"/>
-    <hyperlink r:id="rId239" ref="E117"/>
-    <hyperlink r:id="rId240" ref="D118"/>
-    <hyperlink r:id="rId241" ref="E118"/>
-    <hyperlink r:id="rId242" ref="D119"/>
-    <hyperlink r:id="rId243" ref="E119"/>
-    <hyperlink r:id="rId244" ref="D120"/>
-    <hyperlink r:id="rId245" ref="E120"/>
-    <hyperlink r:id="rId246" ref="F120"/>
-    <hyperlink r:id="rId247" ref="D121"/>
-    <hyperlink r:id="rId248" ref="E121"/>
-    <hyperlink r:id="rId249" ref="D122"/>
-    <hyperlink r:id="rId250" ref="E122"/>
-    <hyperlink r:id="rId251" ref="F122"/>
-    <hyperlink r:id="rId252" ref="D123"/>
-    <hyperlink r:id="rId253" ref="E123"/>
-    <hyperlink r:id="rId254" ref="D124"/>
-    <hyperlink r:id="rId255" ref="E124"/>
-    <hyperlink r:id="rId256" ref="D125"/>
-    <hyperlink r:id="rId257" ref="E125"/>
-    <hyperlink r:id="rId258" ref="D126"/>
-    <hyperlink r:id="rId259" ref="E126"/>
+    <hyperlink r:id="rId222" ref="F106"/>
+    <hyperlink r:id="rId223" ref="C107"/>
+    <hyperlink r:id="rId224" ref="D107"/>
+    <hyperlink r:id="rId225" ref="E107"/>
+    <hyperlink r:id="rId226" ref="D108"/>
+    <hyperlink r:id="rId227" ref="E108"/>
+    <hyperlink r:id="rId228" ref="F108"/>
+    <hyperlink r:id="rId229" ref="D110"/>
+    <hyperlink r:id="rId230" ref="D111"/>
+    <hyperlink r:id="rId231" ref="E111"/>
+    <hyperlink r:id="rId232" ref="D112"/>
+    <hyperlink r:id="rId233" ref="D113"/>
+    <hyperlink r:id="rId234" ref="D114"/>
+    <hyperlink r:id="rId235" ref="E114"/>
+    <hyperlink r:id="rId236" ref="D115"/>
+    <hyperlink r:id="rId237" ref="E115"/>
+    <hyperlink r:id="rId238" ref="D116"/>
+    <hyperlink r:id="rId239" ref="E116"/>
+    <hyperlink r:id="rId240" ref="D117"/>
+    <hyperlink r:id="rId241" ref="E117"/>
+    <hyperlink r:id="rId242" ref="D118"/>
+    <hyperlink r:id="rId243" ref="E118"/>
+    <hyperlink r:id="rId244" ref="D119"/>
+    <hyperlink r:id="rId245" ref="E119"/>
+    <hyperlink r:id="rId246" ref="D120"/>
+    <hyperlink r:id="rId247" ref="E120"/>
+    <hyperlink r:id="rId248" ref="D121"/>
+    <hyperlink r:id="rId249" ref="E121"/>
+    <hyperlink r:id="rId250" ref="F121"/>
+    <hyperlink r:id="rId251" ref="D122"/>
+    <hyperlink r:id="rId252" ref="E122"/>
+    <hyperlink r:id="rId253" ref="D123"/>
+    <hyperlink r:id="rId254" ref="E123"/>
+    <hyperlink r:id="rId255" ref="F123"/>
+    <hyperlink r:id="rId256" ref="D124"/>
+    <hyperlink r:id="rId257" ref="E124"/>
+    <hyperlink r:id="rId258" ref="D125"/>
+    <hyperlink r:id="rId259" ref="E125"/>
+    <hyperlink r:id="rId260" ref="D126"/>
+    <hyperlink r:id="rId261" ref="E126"/>
+    <hyperlink r:id="rId262" ref="D127"/>
+    <hyperlink r:id="rId263" ref="E127"/>
   </hyperlinks>
-  <drawing r:id="rId260"/>
+  <drawing r:id="rId264"/>
 </worksheet>
 </file>
 
@@ -14610,7 +14663,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -14635,27 +14688,27 @@
     </row>
     <row r="2">
       <c r="A2" s="73" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B2" s="74">
         <v>3.0</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="73" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B3" s="78">
         <v>45353.0</v>
@@ -14664,16 +14717,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F3" s="80"/>
     </row>
     <row r="4">
       <c r="A4" s="73" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B4" s="74">
         <v>3.0</v>
@@ -14682,16 +14735,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F4" s="80"/>
     </row>
     <row r="5">
       <c r="A5" s="73" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B5" s="74">
         <v>3.0</v>
@@ -14700,38 +14753,38 @@
         <v>9</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B6" s="74">
         <v>3.0</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="73" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B7" s="74">
         <v>3.0</v>
@@ -14740,13 +14793,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8">
@@ -22729,22 +22782,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -22769,22 +22822,22 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C2" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G2" s="87"/>
       <c r="H2" s="87"/>
@@ -22977,7 +23030,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
@@ -23007,7 +23060,7 @@
     </row>
     <row r="10">
       <c r="A10" s="89" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -26556,75 +26609,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="91" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="91" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D2" s="93">
         <v>45746.0</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="91" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B3" s="96">
         <v>4.0</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D3" s="93">
         <v>45899.0</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F3" s="91" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="91" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B4" s="92"/>
       <c r="D4" s="93">
         <v>45884.0</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5">
@@ -30641,10 +30694,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>3</v>
@@ -30677,89 +30730,89 @@
     </row>
     <row r="2">
       <c r="A2" s="99" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D2" s="100"/>
       <c r="E2" s="101"/>
     </row>
     <row r="3">
       <c r="A3" s="99" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D3" s="100"/>
       <c r="E3" s="101"/>
     </row>
     <row r="4">
       <c r="A4" s="99" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B4" s="96">
         <v>2024.0</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="101"/>
     </row>
     <row r="5">
       <c r="A5" s="99" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B5" s="96" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="101"/>
     </row>
     <row r="6">
       <c r="A6" s="99" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B6" s="96">
         <v>2025.0</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D6" s="100"/>
       <c r="E6" s="101"/>
     </row>
     <row r="7">
       <c r="A7" s="99" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="102" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B8" s="96">
         <v>2025.0</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9">
@@ -34760,82 +34813,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="104" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="105" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="105" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="105" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="105" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="105" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="105" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="105" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="105" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="105" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11">

--- a/source/Journals.xlsx
+++ b/source/Journals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="571">
   <si>
     <t>Journal</t>
   </si>
@@ -871,13 +871,30 @@
     <t>Quality and Reliability Engineering International</t>
   </si>
   <si>
+    <t>Бесплатно без OpenA $4 550</t>
+  </si>
+  <si>
     <t>https://researcher.life/ko/journal/quality-and-reliability-engineering-international/1019</t>
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/qre.3671</t>
   </si>
   <si>
-    <t>Долгая публикация (7 месяцев), не совсем тот домен</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Долгая публикация (7 месяцев), не совсем тот домен
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>First decision &lt;= 12 days, time to publish: 175 days</t>
+    </r>
   </si>
   <si>
     <t>https://www.scimagojr.com/journalsearch.php?q=21100206605&amp;tip=sid&amp;clean=0</t>
@@ -1084,18 +1101,6 @@
     <t>Публикация за 4 месяца</t>
   </si>
   <si>
-    <t>Бесплатно без OpenA $4 550</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/journal/10991638</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/qre.3754</t>
-  </si>
-  <si>
-    <t>Публикация от 2х недель</t>
-  </si>
-  <si>
     <t>Sci (MDPI)</t>
   </si>
   <si>
@@ -1169,12 +1174,6 @@
   </si>
   <si>
     <t>First decision &lt;= 10 days, time to publish: 368 days</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/qre.70017</t>
-  </si>
-  <si>
-    <t>First decision &lt;= 12 days, time to publish: 175 days</t>
   </si>
   <si>
     <t>Computational Journal of Mathematical and Statistical Sciences</t>
@@ -1218,6 +1217,30 @@
   </si>
   <si>
     <t>time to publish ~ 200 days</t>
+  </si>
+  <si>
+    <t>Quality and Quantity</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=19372&amp;tip=sid</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11135-025-02260-1</t>
+  </si>
+  <si>
+    <t>First decision &lt;= 22 days</t>
+  </si>
+  <si>
+    <t>Reliability Engineering and System Safety</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=13853&amp;tip=sid</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0951832025007069</t>
+  </si>
+  <si>
+    <t>First decision &lt;= 6 days, time to publish: 178 days</t>
   </si>
   <si>
     <t>Decision Sciences</t>
@@ -1953,12 +1976,6 @@
   </si>
   <si>
     <t>53 недели, нацелены больше на ПО</t>
-  </si>
-  <si>
-    <t>https://www.sciencegate.app/source/298</t>
-  </si>
-  <si>
-    <t>https://strathprints.strath.ac.uk/76950/7/He_etal_QREI_2021_Reliability_analysis_of_systems_with_discrete_event.pdf</t>
   </si>
   <si>
     <t>Комментарии + Turnaround time</t>
@@ -4139,17 +4156,17 @@
       <c r="B54" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>30</v>
+      <c r="C54" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" s="27" t="s">
         <v>224</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="G54" s="12"/>
     </row>
@@ -4164,80 +4181,80 @@
         <v>9</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G55" s="12"/>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G56" s="12"/>
     </row>
     <row r="57">
       <c r="A57" s="36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G57" s="41"/>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>30</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G58" s="12"/>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>8</v>
@@ -4246,34 +4263,34 @@
         <v>9</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G59" s="12"/>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -4288,32 +4305,32 @@
         <v>9</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G61" s="12"/>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E62" s="30"/>
       <c r="F62" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G62" s="12"/>
     </row>
@@ -4325,52 +4342,52 @@
         <v>8</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G63" s="12"/>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G64" s="12"/>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>30</v>
@@ -4380,232 +4397,232 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G66" s="12"/>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G67" s="12"/>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>278</v>
+        <v>8</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>280</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G68" s="12"/>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>283</v>
+      <c r="C69" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G69" s="12"/>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>288</v>
+        <v>37</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>292</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G70" s="12"/>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G71" s="12"/>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G72" s="12"/>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G73" s="12"/>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>9</v>
+        <v>310</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G74" s="12"/>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G75" s="12"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="G76" s="12"/>
     </row>
@@ -4620,7 +4637,7 @@
     </row>
     <row r="78">
       <c r="A78" s="43" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B78" s="44"/>
       <c r="C78" s="45"/>
@@ -4631,7 +4648,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>8</v>
@@ -4640,13 +4657,13 @@
         <v>9</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G79" s="12"/>
     </row>
@@ -4661,7 +4678,7 @@
     </row>
     <row r="81">
       <c r="A81" s="43" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B81" s="44"/>
       <c r="C81" s="45"/>
@@ -4672,26 +4689,26 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>8</v>
@@ -4700,40 +4717,40 @@
         <v>9</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G83" s="12"/>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G84" s="12"/>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>8</v>
@@ -4742,40 +4759,40 @@
         <v>50</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G85" s="12"/>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G86" s="12"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>8</v>
@@ -4784,40 +4801,40 @@
         <v>50</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G87" s="12"/>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F88" s="50" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G88" s="12"/>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>8</v>
@@ -4826,19 +4843,19 @@
         <v>9</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G89" s="12"/>
     </row>
     <row r="90">
       <c r="A90" s="51" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>37</v>
@@ -4847,82 +4864,82 @@
         <v>9</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G90" s="12"/>
     </row>
     <row r="91">
       <c r="A91" s="52" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G91" s="12"/>
     </row>
     <row r="92">
       <c r="A92" s="53" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G92" s="12"/>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G93" s="12"/>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>8</v>
@@ -4931,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G94" s="12"/>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>8</v>
@@ -4952,34 +4969,34 @@
         <v>182</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G95" s="12"/>
     </row>
     <row r="96">
       <c r="A96" s="28" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G96" s="12"/>
     </row>
@@ -4997,16 +5014,16 @@
         <v>10</v>
       </c>
       <c r="E97" s="57" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F97" s="54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G97" s="58"/>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>8</v>
@@ -5015,13 +5032,13 @@
         <v>9</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G98" s="12"/>
     </row>
@@ -5036,7 +5053,7 @@
     </row>
     <row r="100">
       <c r="A100" s="43" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
@@ -5047,7 +5064,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>8</v>
@@ -5056,10 +5073,10 @@
         <v>30</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="12"/>
@@ -5075,12 +5092,12 @@
     </row>
     <row r="103">
       <c r="A103" s="43" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B103" s="44"/>
       <c r="C103" s="45"/>
       <c r="D103" s="46" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E103" s="47"/>
       <c r="F103" s="45"/>
@@ -5088,49 +5105,49 @@
     </row>
     <row r="104">
       <c r="A104" s="28" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G104" s="12"/>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E105" s="62" t="s">
         <v>55</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G105" s="12"/>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>8</v>
@@ -5139,40 +5156,40 @@
         <v>9</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G106" s="12"/>
     </row>
     <row r="107">
       <c r="A107" s="28" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G107" s="12"/>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>37</v>
@@ -5181,13 +5198,13 @@
         <v>9</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E108" s="63" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G108" s="12"/>
     </row>
@@ -5202,12 +5219,12 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B110" s="44"/>
       <c r="C110" s="45"/>
       <c r="D110" s="65" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E110" s="47"/>
       <c r="F110" s="45"/>
@@ -5215,7 +5232,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>37</v>
@@ -5224,272 +5241,272 @@
         <v>9</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G111" s="12"/>
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E112" s="64" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G112" s="12"/>
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E113" s="64" t="s">
         <v>435</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="E113" s="64" t="s">
-        <v>432</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E115" s="66" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116">
       <c r="A116" s="13" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G121" s="12"/>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G123" s="12"/>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="12"/>
     </row>
     <row r="125">
       <c r="A125" s="13" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>8</v>
@@ -5498,19 +5515,19 @@
         <v>28</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G125" s="12"/>
     </row>
     <row r="126">
       <c r="A126" s="53" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>8</v>
@@ -5519,32 +5536,22 @@
         <v>28</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F126" s="27" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G126" s="12"/>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>485</v>
-      </c>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
       <c r="F127" s="9"/>
       <c r="G127" s="12"/>
     </row>
@@ -5560,7 +5567,7 @@
     <row r="129">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="9"/>
+      <c r="C129" s="27"/>
       <c r="D129" s="64"/>
       <c r="E129" s="64"/>
       <c r="F129" s="9"/>
@@ -5569,7 +5576,7 @@
     <row r="130">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="27"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="64"/>
       <c r="E130" s="64"/>
       <c r="F130" s="9"/>
@@ -5604,7 +5611,7 @@
     </row>
     <row r="134">
       <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
+      <c r="B134" s="67"/>
       <c r="C134" s="11"/>
       <c r="D134" s="64"/>
       <c r="E134" s="64"/>
@@ -5613,7 +5620,7 @@
     </row>
     <row r="135">
       <c r="A135" s="13"/>
-      <c r="B135" s="67"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="11"/>
       <c r="D135" s="64"/>
       <c r="E135" s="64"/>
@@ -5623,7 +5630,7 @@
     <row r="136">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="11"/>
+      <c r="C136" s="9"/>
       <c r="D136" s="64"/>
       <c r="E136" s="64"/>
       <c r="F136" s="9"/>
@@ -14349,15 +14356,6 @@
       <c r="E1105" s="64"/>
       <c r="F1105" s="9"/>
       <c r="G1105" s="12"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" s="13"/>
-      <c r="B1106" s="14"/>
-      <c r="C1106" s="9"/>
-      <c r="D1106" s="64"/>
-      <c r="E1106" s="64"/>
-      <c r="F1106" s="9"/>
-      <c r="G1106" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14469,163 +14467,162 @@
     <hyperlink r:id="rId106" ref="E52"/>
     <hyperlink r:id="rId107" ref="D53"/>
     <hyperlink r:id="rId108" ref="E53"/>
-    <hyperlink r:id="rId109" ref="D54"/>
-    <hyperlink r:id="rId110" ref="E54"/>
-    <hyperlink r:id="rId111" ref="D55"/>
-    <hyperlink r:id="rId112" ref="E55"/>
-    <hyperlink r:id="rId113" ref="F55"/>
-    <hyperlink r:id="rId114" ref="C56"/>
-    <hyperlink r:id="rId115" ref="D56"/>
-    <hyperlink r:id="rId116" ref="D57"/>
-    <hyperlink r:id="rId117" ref="E57"/>
-    <hyperlink r:id="rId118" location="1069-2509" ref="C58"/>
-    <hyperlink r:id="rId119" location="open-access" ref="D58"/>
-    <hyperlink r:id="rId120" location="1069-2509" ref="F58"/>
-    <hyperlink r:id="rId121" ref="C59"/>
-    <hyperlink r:id="rId122" ref="D59"/>
-    <hyperlink r:id="rId123" ref="E59"/>
-    <hyperlink r:id="rId124" ref="D60"/>
-    <hyperlink r:id="rId125" ref="E60"/>
-    <hyperlink r:id="rId126" ref="D61"/>
-    <hyperlink r:id="rId127" ref="E61"/>
-    <hyperlink r:id="rId128" ref="C62"/>
-    <hyperlink r:id="rId129" ref="D62"/>
-    <hyperlink r:id="rId130" location="Fees%20and%20funding" ref="C63"/>
-    <hyperlink r:id="rId131" ref="D63"/>
-    <hyperlink r:id="rId132" ref="E63"/>
-    <hyperlink r:id="rId133" ref="C64"/>
-    <hyperlink r:id="rId134" ref="D64"/>
-    <hyperlink r:id="rId135" ref="E64"/>
-    <hyperlink r:id="rId136" ref="F64"/>
-    <hyperlink r:id="rId137" ref="C65"/>
-    <hyperlink r:id="rId138" ref="D65"/>
-    <hyperlink r:id="rId139" ref="D66"/>
-    <hyperlink r:id="rId140" ref="E66"/>
-    <hyperlink r:id="rId141" ref="C67"/>
-    <hyperlink r:id="rId142" ref="D67"/>
-    <hyperlink r:id="rId143" ref="E67"/>
-    <hyperlink r:id="rId144" ref="C68"/>
-    <hyperlink r:id="rId145" ref="D68"/>
-    <hyperlink r:id="rId146" ref="E68"/>
-    <hyperlink r:id="rId147" ref="D69"/>
-    <hyperlink r:id="rId148" ref="E69"/>
-    <hyperlink r:id="rId149" ref="D70"/>
-    <hyperlink r:id="rId150" ref="E70"/>
-    <hyperlink r:id="rId151" ref="C71"/>
-    <hyperlink r:id="rId152" ref="D71"/>
-    <hyperlink r:id="rId153" ref="C72"/>
-    <hyperlink r:id="rId154" ref="D72"/>
-    <hyperlink r:id="rId155" ref="E72"/>
-    <hyperlink r:id="rId156" ref="C73"/>
-    <hyperlink r:id="rId157" ref="D73"/>
-    <hyperlink r:id="rId158" ref="E73"/>
-    <hyperlink r:id="rId159" ref="C74"/>
-    <hyperlink r:id="rId160" ref="D74"/>
-    <hyperlink r:id="rId161" ref="E74"/>
-    <hyperlink r:id="rId162" ref="F74"/>
-    <hyperlink r:id="rId163" ref="C75"/>
-    <hyperlink r:id="rId164" ref="D75"/>
-    <hyperlink r:id="rId165" ref="E75"/>
-    <hyperlink r:id="rId166" ref="C76"/>
-    <hyperlink r:id="rId167" ref="D76"/>
-    <hyperlink r:id="rId168" ref="E76"/>
-    <hyperlink r:id="rId169" ref="F76"/>
-    <hyperlink r:id="rId170" location="aims-and-scope" ref="C79"/>
-    <hyperlink r:id="rId171" ref="D79"/>
-    <hyperlink r:id="rId172" ref="E79"/>
-    <hyperlink r:id="rId173" ref="D82"/>
-    <hyperlink r:id="rId174" ref="E82"/>
-    <hyperlink r:id="rId175" ref="D83"/>
-    <hyperlink r:id="rId176" ref="E83"/>
-    <hyperlink r:id="rId177" ref="D84"/>
-    <hyperlink r:id="rId178" ref="E84"/>
-    <hyperlink r:id="rId179" ref="F84"/>
-    <hyperlink r:id="rId180" ref="D85"/>
-    <hyperlink r:id="rId181" ref="E85"/>
-    <hyperlink r:id="rId182" ref="D86"/>
-    <hyperlink r:id="rId183" ref="E86"/>
-    <hyperlink r:id="rId184" ref="D87"/>
-    <hyperlink r:id="rId185" ref="E87"/>
-    <hyperlink r:id="rId186" ref="D88"/>
-    <hyperlink r:id="rId187" ref="E88"/>
-    <hyperlink r:id="rId188" ref="D89"/>
-    <hyperlink r:id="rId189" ref="E89"/>
-    <hyperlink r:id="rId190" location="callForPapersHeader" ref="D90"/>
-    <hyperlink r:id="rId191" ref="E90"/>
-    <hyperlink r:id="rId192" ref="D91"/>
-    <hyperlink r:id="rId193" ref="F91"/>
-    <hyperlink r:id="rId194" ref="D92"/>
-    <hyperlink r:id="rId195" ref="E92"/>
-    <hyperlink r:id="rId196" ref="F92"/>
-    <hyperlink r:id="rId197" ref="D93"/>
-    <hyperlink r:id="rId198" ref="E93"/>
-    <hyperlink r:id="rId199" ref="D94"/>
-    <hyperlink r:id="rId200" ref="E94"/>
-    <hyperlink r:id="rId201" ref="C95"/>
-    <hyperlink r:id="rId202" ref="D95"/>
-    <hyperlink r:id="rId203" ref="E95"/>
-    <hyperlink r:id="rId204" ref="F95"/>
-    <hyperlink r:id="rId205" ref="C96"/>
-    <hyperlink r:id="rId206" ref="D96"/>
-    <hyperlink r:id="rId207" ref="E96"/>
-    <hyperlink r:id="rId208" ref="F96"/>
-    <hyperlink r:id="rId209" ref="D97"/>
-    <hyperlink r:id="rId210" ref="E97"/>
-    <hyperlink r:id="rId211" ref="C98"/>
-    <hyperlink r:id="rId212" ref="D98"/>
-    <hyperlink r:id="rId213" ref="E98"/>
-    <hyperlink r:id="rId214" ref="D101"/>
-    <hyperlink r:id="rId215" ref="E101"/>
-    <hyperlink r:id="rId216" ref="D103"/>
-    <hyperlink r:id="rId217" ref="D104"/>
-    <hyperlink r:id="rId218" ref="E104"/>
-    <hyperlink r:id="rId219" ref="D105"/>
-    <hyperlink r:id="rId220" ref="D106"/>
-    <hyperlink r:id="rId221" ref="E106"/>
-    <hyperlink r:id="rId222" ref="F106"/>
-    <hyperlink r:id="rId223" ref="C107"/>
-    <hyperlink r:id="rId224" ref="D107"/>
-    <hyperlink r:id="rId225" ref="E107"/>
-    <hyperlink r:id="rId226" ref="D108"/>
-    <hyperlink r:id="rId227" ref="E108"/>
-    <hyperlink r:id="rId228" ref="F108"/>
-    <hyperlink r:id="rId229" ref="D110"/>
-    <hyperlink r:id="rId230" ref="D111"/>
-    <hyperlink r:id="rId231" ref="E111"/>
-    <hyperlink r:id="rId232" ref="D112"/>
-    <hyperlink r:id="rId233" ref="D113"/>
-    <hyperlink r:id="rId234" ref="D114"/>
-    <hyperlink r:id="rId235" ref="E114"/>
-    <hyperlink r:id="rId236" ref="D115"/>
-    <hyperlink r:id="rId237" ref="E115"/>
-    <hyperlink r:id="rId238" ref="D116"/>
-    <hyperlink r:id="rId239" ref="E116"/>
-    <hyperlink r:id="rId240" ref="D117"/>
-    <hyperlink r:id="rId241" ref="E117"/>
-    <hyperlink r:id="rId242" ref="D118"/>
-    <hyperlink r:id="rId243" ref="E118"/>
-    <hyperlink r:id="rId244" ref="D119"/>
-    <hyperlink r:id="rId245" ref="E119"/>
-    <hyperlink r:id="rId246" ref="D120"/>
-    <hyperlink r:id="rId247" ref="E120"/>
-    <hyperlink r:id="rId248" ref="D121"/>
-    <hyperlink r:id="rId249" ref="E121"/>
-    <hyperlink r:id="rId250" ref="F121"/>
-    <hyperlink r:id="rId251" ref="D122"/>
-    <hyperlink r:id="rId252" ref="E122"/>
-    <hyperlink r:id="rId253" ref="D123"/>
-    <hyperlink r:id="rId254" ref="E123"/>
-    <hyperlink r:id="rId255" ref="F123"/>
-    <hyperlink r:id="rId256" ref="D124"/>
-    <hyperlink r:id="rId257" ref="E124"/>
-    <hyperlink r:id="rId258" ref="D125"/>
-    <hyperlink r:id="rId259" ref="E125"/>
-    <hyperlink r:id="rId260" ref="D126"/>
-    <hyperlink r:id="rId261" ref="E126"/>
-    <hyperlink r:id="rId262" ref="D127"/>
-    <hyperlink r:id="rId263" ref="E127"/>
+    <hyperlink r:id="rId109" ref="C54"/>
+    <hyperlink r:id="rId110" ref="D54"/>
+    <hyperlink r:id="rId111" ref="E54"/>
+    <hyperlink r:id="rId112" ref="F54"/>
+    <hyperlink r:id="rId113" ref="D55"/>
+    <hyperlink r:id="rId114" ref="E55"/>
+    <hyperlink r:id="rId115" ref="F55"/>
+    <hyperlink r:id="rId116" ref="C56"/>
+    <hyperlink r:id="rId117" ref="D56"/>
+    <hyperlink r:id="rId118" ref="D57"/>
+    <hyperlink r:id="rId119" ref="E57"/>
+    <hyperlink r:id="rId120" location="1069-2509" ref="C58"/>
+    <hyperlink r:id="rId121" location="open-access" ref="D58"/>
+    <hyperlink r:id="rId122" location="1069-2509" ref="F58"/>
+    <hyperlink r:id="rId123" ref="C59"/>
+    <hyperlink r:id="rId124" ref="D59"/>
+    <hyperlink r:id="rId125" ref="E59"/>
+    <hyperlink r:id="rId126" ref="D60"/>
+    <hyperlink r:id="rId127" ref="E60"/>
+    <hyperlink r:id="rId128" ref="D61"/>
+    <hyperlink r:id="rId129" ref="E61"/>
+    <hyperlink r:id="rId130" ref="C62"/>
+    <hyperlink r:id="rId131" ref="D62"/>
+    <hyperlink r:id="rId132" location="Fees%20and%20funding" ref="C63"/>
+    <hyperlink r:id="rId133" ref="D63"/>
+    <hyperlink r:id="rId134" ref="E63"/>
+    <hyperlink r:id="rId135" ref="C64"/>
+    <hyperlink r:id="rId136" ref="D64"/>
+    <hyperlink r:id="rId137" ref="E64"/>
+    <hyperlink r:id="rId138" ref="F64"/>
+    <hyperlink r:id="rId139" ref="C65"/>
+    <hyperlink r:id="rId140" ref="D65"/>
+    <hyperlink r:id="rId141" ref="D66"/>
+    <hyperlink r:id="rId142" ref="E66"/>
+    <hyperlink r:id="rId143" ref="C67"/>
+    <hyperlink r:id="rId144" ref="D67"/>
+    <hyperlink r:id="rId145" ref="E67"/>
+    <hyperlink r:id="rId146" ref="D68"/>
+    <hyperlink r:id="rId147" ref="E68"/>
+    <hyperlink r:id="rId148" ref="D69"/>
+    <hyperlink r:id="rId149" ref="E69"/>
+    <hyperlink r:id="rId150" ref="C70"/>
+    <hyperlink r:id="rId151" ref="D70"/>
+    <hyperlink r:id="rId152" ref="C71"/>
+    <hyperlink r:id="rId153" ref="D71"/>
+    <hyperlink r:id="rId154" ref="E71"/>
+    <hyperlink r:id="rId155" ref="C72"/>
+    <hyperlink r:id="rId156" ref="D72"/>
+    <hyperlink r:id="rId157" ref="E72"/>
+    <hyperlink r:id="rId158" ref="C73"/>
+    <hyperlink r:id="rId159" ref="D73"/>
+    <hyperlink r:id="rId160" ref="E73"/>
+    <hyperlink r:id="rId161" ref="C74"/>
+    <hyperlink r:id="rId162" ref="D74"/>
+    <hyperlink r:id="rId163" ref="E74"/>
+    <hyperlink r:id="rId164" ref="F74"/>
+    <hyperlink r:id="rId165" location="Fees%20and%20funding" ref="C75"/>
+    <hyperlink r:id="rId166" ref="D75"/>
+    <hyperlink r:id="rId167" ref="E75"/>
+    <hyperlink r:id="rId168" ref="C76"/>
+    <hyperlink r:id="rId169" ref="D76"/>
+    <hyperlink r:id="rId170" ref="E76"/>
+    <hyperlink r:id="rId171" location="aims-and-scope" ref="C79"/>
+    <hyperlink r:id="rId172" ref="D79"/>
+    <hyperlink r:id="rId173" ref="E79"/>
+    <hyperlink r:id="rId174" ref="D82"/>
+    <hyperlink r:id="rId175" ref="E82"/>
+    <hyperlink r:id="rId176" ref="D83"/>
+    <hyperlink r:id="rId177" ref="E83"/>
+    <hyperlink r:id="rId178" ref="D84"/>
+    <hyperlink r:id="rId179" ref="E84"/>
+    <hyperlink r:id="rId180" ref="F84"/>
+    <hyperlink r:id="rId181" ref="D85"/>
+    <hyperlink r:id="rId182" ref="E85"/>
+    <hyperlink r:id="rId183" ref="D86"/>
+    <hyperlink r:id="rId184" ref="E86"/>
+    <hyperlink r:id="rId185" ref="D87"/>
+    <hyperlink r:id="rId186" ref="E87"/>
+    <hyperlink r:id="rId187" ref="D88"/>
+    <hyperlink r:id="rId188" ref="E88"/>
+    <hyperlink r:id="rId189" ref="D89"/>
+    <hyperlink r:id="rId190" ref="E89"/>
+    <hyperlink r:id="rId191" location="callForPapersHeader" ref="D90"/>
+    <hyperlink r:id="rId192" ref="E90"/>
+    <hyperlink r:id="rId193" ref="D91"/>
+    <hyperlink r:id="rId194" ref="F91"/>
+    <hyperlink r:id="rId195" ref="D92"/>
+    <hyperlink r:id="rId196" ref="E92"/>
+    <hyperlink r:id="rId197" ref="F92"/>
+    <hyperlink r:id="rId198" ref="D93"/>
+    <hyperlink r:id="rId199" ref="E93"/>
+    <hyperlink r:id="rId200" ref="D94"/>
+    <hyperlink r:id="rId201" ref="E94"/>
+    <hyperlink r:id="rId202" ref="C95"/>
+    <hyperlink r:id="rId203" ref="D95"/>
+    <hyperlink r:id="rId204" ref="E95"/>
+    <hyperlink r:id="rId205" ref="F95"/>
+    <hyperlink r:id="rId206" ref="C96"/>
+    <hyperlink r:id="rId207" ref="D96"/>
+    <hyperlink r:id="rId208" ref="E96"/>
+    <hyperlink r:id="rId209" ref="F96"/>
+    <hyperlink r:id="rId210" ref="D97"/>
+    <hyperlink r:id="rId211" ref="E97"/>
+    <hyperlink r:id="rId212" ref="C98"/>
+    <hyperlink r:id="rId213" ref="D98"/>
+    <hyperlink r:id="rId214" ref="E98"/>
+    <hyperlink r:id="rId215" ref="D101"/>
+    <hyperlink r:id="rId216" ref="E101"/>
+    <hyperlink r:id="rId217" ref="D103"/>
+    <hyperlink r:id="rId218" ref="D104"/>
+    <hyperlink r:id="rId219" ref="E104"/>
+    <hyperlink r:id="rId220" ref="D105"/>
+    <hyperlink r:id="rId221" ref="D106"/>
+    <hyperlink r:id="rId222" ref="E106"/>
+    <hyperlink r:id="rId223" ref="F106"/>
+    <hyperlink r:id="rId224" ref="C107"/>
+    <hyperlink r:id="rId225" ref="D107"/>
+    <hyperlink r:id="rId226" ref="E107"/>
+    <hyperlink r:id="rId227" ref="D108"/>
+    <hyperlink r:id="rId228" ref="E108"/>
+    <hyperlink r:id="rId229" ref="F108"/>
+    <hyperlink r:id="rId230" ref="D110"/>
+    <hyperlink r:id="rId231" ref="D111"/>
+    <hyperlink r:id="rId232" ref="E111"/>
+    <hyperlink r:id="rId233" ref="D112"/>
+    <hyperlink r:id="rId234" ref="D113"/>
+    <hyperlink r:id="rId235" ref="D114"/>
+    <hyperlink r:id="rId236" ref="E114"/>
+    <hyperlink r:id="rId237" ref="D115"/>
+    <hyperlink r:id="rId238" ref="E115"/>
+    <hyperlink r:id="rId239" ref="D116"/>
+    <hyperlink r:id="rId240" ref="E116"/>
+    <hyperlink r:id="rId241" ref="D117"/>
+    <hyperlink r:id="rId242" ref="E117"/>
+    <hyperlink r:id="rId243" ref="D118"/>
+    <hyperlink r:id="rId244" ref="E118"/>
+    <hyperlink r:id="rId245" ref="D119"/>
+    <hyperlink r:id="rId246" ref="E119"/>
+    <hyperlink r:id="rId247" ref="D120"/>
+    <hyperlink r:id="rId248" ref="E120"/>
+    <hyperlink r:id="rId249" ref="D121"/>
+    <hyperlink r:id="rId250" ref="E121"/>
+    <hyperlink r:id="rId251" ref="F121"/>
+    <hyperlink r:id="rId252" ref="D122"/>
+    <hyperlink r:id="rId253" ref="E122"/>
+    <hyperlink r:id="rId254" ref="D123"/>
+    <hyperlink r:id="rId255" ref="E123"/>
+    <hyperlink r:id="rId256" ref="F123"/>
+    <hyperlink r:id="rId257" ref="D124"/>
+    <hyperlink r:id="rId258" ref="E124"/>
+    <hyperlink r:id="rId259" ref="D125"/>
+    <hyperlink r:id="rId260" ref="E125"/>
+    <hyperlink r:id="rId261" ref="D126"/>
+    <hyperlink r:id="rId262" ref="E126"/>
   </hyperlinks>
-  <drawing r:id="rId264"/>
+  <drawing r:id="rId263"/>
 </worksheet>
 </file>
 
@@ -14663,7 +14660,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -14688,27 +14685,27 @@
     </row>
     <row r="2">
       <c r="A2" s="73" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B2" s="74">
         <v>3.0</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="73" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B3" s="78">
         <v>45353.0</v>
@@ -14717,16 +14714,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F3" s="80"/>
     </row>
     <row r="4">
       <c r="A4" s="73" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B4" s="74">
         <v>3.0</v>
@@ -14735,16 +14732,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F4" s="80"/>
     </row>
     <row r="5">
       <c r="A5" s="73" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B5" s="74">
         <v>3.0</v>
@@ -14753,38 +14750,38 @@
         <v>9</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B6" s="74">
         <v>3.0</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="73" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B7" s="74">
         <v>3.0</v>
@@ -14793,13 +14790,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8">
@@ -22782,22 +22779,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -22822,22 +22819,22 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C2" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G2" s="87"/>
       <c r="H2" s="87"/>
@@ -23030,7 +23027,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
@@ -23060,7 +23057,7 @@
     </row>
     <row r="10">
       <c r="A10" s="89" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -26609,75 +26606,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="91" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="91" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D2" s="93">
         <v>45746.0</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="91" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B3" s="96">
         <v>4.0</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D3" s="93">
         <v>45899.0</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F3" s="91" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="91" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B4" s="92"/>
       <c r="D4" s="93">
         <v>45884.0</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5">
@@ -30694,10 +30691,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>3</v>
@@ -30730,89 +30727,89 @@
     </row>
     <row r="2">
       <c r="A2" s="99" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D2" s="100"/>
       <c r="E2" s="101"/>
     </row>
     <row r="3">
       <c r="A3" s="99" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D3" s="100"/>
       <c r="E3" s="101"/>
     </row>
     <row r="4">
       <c r="A4" s="99" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B4" s="96">
         <v>2024.0</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="101"/>
     </row>
     <row r="5">
       <c r="A5" s="99" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B5" s="96" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="101"/>
     </row>
     <row r="6">
       <c r="A6" s="99" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B6" s="96">
         <v>2025.0</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D6" s="100"/>
       <c r="E6" s="101"/>
     </row>
     <row r="7">
       <c r="A7" s="99" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="102" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B8" s="96">
         <v>2025.0</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9">
@@ -34813,82 +34810,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="104" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="105" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="105" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="105" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="105" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="105" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="105" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="105" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="105" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="105" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11">

--- a/source/Journals.xlsx
+++ b/source/Journals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="589">
   <si>
     <t>Journal</t>
   </si>
@@ -1241,6 +1241,60 @@
   </si>
   <si>
     <t>First decision &lt;= 6 days, time to publish: 178 days</t>
+  </si>
+  <si>
+    <t>International Journal of System Assurance Engineering and Management</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=19700177002&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s13198-025-02913-2</t>
+  </si>
+  <si>
+    <t>First decision &lt;= 93 days</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>2690 USD</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100200805&amp;tip=sid</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-025-07915-5</t>
+  </si>
+  <si>
+    <t>Nature! First decision &lt;= 21 days, time to publish: 137 days</t>
+  </si>
+  <si>
+    <t>Mathematical Problems in Engineering</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=13082&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1155/2021/9949999</t>
+  </si>
+  <si>
+    <t>time to publish &gt;= 60 days</t>
+  </si>
+  <si>
+    <t>Demonstratio Mathematica</t>
+  </si>
+  <si>
+    <t>1050 USD</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100836176&amp;tip=sid&amp;clean=0</t>
+  </si>
+  <si>
+    <t>https://www.degruyterbrill.com/search/series/dema?query=Survival+analysis&amp;documentVisibility=all</t>
+  </si>
+  <si>
+    <t>Publication Frequency: 1 issue per year?</t>
   </si>
   <si>
     <t>Decision Sciences</t>
@@ -4627,167 +4681,167 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="27"/>
+      <c r="A77" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>325</v>
+      </c>
       <c r="G77" s="12"/>
     </row>
     <row r="78">
-      <c r="A78" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="48"/>
+      <c r="A78" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G78" s="12"/>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G79" s="12"/>
     </row>
     <row r="80">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="27"/>
+      <c r="A80" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>339</v>
+      </c>
       <c r="G80" s="12"/>
     </row>
     <row r="81">
-      <c r="A81" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="48"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="12"/>
+      <c r="A82" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="48"/>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>335</v>
+      <c r="D83" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="G83" s="12"/>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>340</v>
-      </c>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="G85" s="12"/>
+      <c r="A85" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="48"/>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B86" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D86" s="16" t="s">
+      <c r="C86" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="D86" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="E86" s="15" t="s">
         <v>349</v>
       </c>
+      <c r="F86" s="9"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87">
@@ -4797,8 +4851,8 @@
       <c r="B87" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>50</v>
+      <c r="C87" s="49" t="s">
+        <v>9</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>351</v>
@@ -4815,19 +4869,19 @@
       <c r="A88" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="F88" s="50" t="s">
+      <c r="F88" s="25" t="s">
         <v>358</v>
       </c>
       <c r="G88" s="12"/>
@@ -4840,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>360</v>
@@ -4854,64 +4908,64 @@
       <c r="G89" s="12"/>
     </row>
     <row r="90">
-      <c r="A90" s="51" t="s">
+      <c r="A90" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="15" t="s">
+      <c r="B90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="D90" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="E90" s="24" t="s">
         <v>366</v>
       </c>
+      <c r="F90" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="G90" s="12"/>
     </row>
     <row r="91">
-      <c r="A91" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="B91" s="8" t="s">
+      <c r="A91" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="C91" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="11" t="s">
         <v>371</v>
       </c>
       <c r="G91" s="12"/>
     </row>
     <row r="92">
-      <c r="A92" s="53" t="s">
+      <c r="A92" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="10" t="s">
         <v>374</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="50" t="s">
         <v>376</v>
       </c>
       <c r="G92" s="12"/>
@@ -4920,672 +4974,720 @@
       <c r="A93" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="F93" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="F94" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="F94" s="27" t="s">
-        <v>278</v>
-      </c>
       <c r="G94" s="12"/>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="52" t="s">
         <v>385</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="25" t="s">
-        <v>182</v>
+      <c r="C95" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E95" s="10" t="s">
         <v>387</v>
       </c>
+      <c r="E95" s="30" t="s">
+        <v>388</v>
+      </c>
       <c r="F95" s="25" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G95" s="12"/>
     </row>
     <row r="96">
-      <c r="A96" s="28" t="s">
-        <v>389</v>
+      <c r="A96" s="53" t="s">
+        <v>390</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" s="10" t="s">
+      <c r="C96" s="11" t="s">
         <v>391</v>
       </c>
+      <c r="D96" s="16" t="s">
+        <v>392</v>
+      </c>
       <c r="E96" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G96" s="12"/>
     </row>
     <row r="97">
-      <c r="A97" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="F97" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G97" s="58"/>
+      <c r="A97" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="G97" s="12"/>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="G98" s="12"/>
     </row>
     <row r="99">
-      <c r="A99" s="59"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="41"/>
+      <c r="A99" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G99" s="12"/>
     </row>
     <row r="100">
-      <c r="A100" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="48"/>
+      <c r="A100" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="G100" s="12"/>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="12"/>
+      <c r="C101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="F101" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G101" s="58"/>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="27"/>
+      <c r="A102" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>416</v>
+      </c>
       <c r="G102" s="12"/>
     </row>
     <row r="103">
-      <c r="A103" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="46" t="s">
-        <v>404</v>
-      </c>
-      <c r="E103" s="47"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="48"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="41"/>
     </row>
     <row r="104">
-      <c r="A104" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="G104" s="12"/>
+      <c r="A104" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="48"/>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>410</v>
+        <v>30</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E105" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F105" s="27"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="E107" s="47"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="48"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E109" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F105" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B106" s="8" t="s">
+      <c r="F109" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C110" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E108" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="F108" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B110" s="44"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="E110" s="47"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="48"/>
+      <c r="D110" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="G110" s="12"/>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="s">
-        <v>428</v>
+      <c r="A111" s="28" t="s">
+        <v>435</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="E112" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>436</v>
+      <c r="D112" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E112" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>443</v>
       </c>
       <c r="G112" s="12"/>
     </row>
     <row r="113">
-      <c r="A113" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="E113" s="64" t="s">
-        <v>435</v>
-      </c>
+      <c r="A113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
       <c r="F113" s="9"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114">
-      <c r="A114" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="B114" s="14" t="s">
+      <c r="A114" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="E114" s="47"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="48"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="C115" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="E115" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="F115" s="9"/>
+      <c r="E115" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>449</v>
+      </c>
       <c r="G115" s="12"/>
     </row>
     <row r="116">
       <c r="A116" s="13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="F116" s="9"/>
+        <v>452</v>
+      </c>
+      <c r="E116" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="G116" s="12"/>
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>37</v>
+        <v>455</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="E117" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="E117" s="64" t="s">
         <v>453</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118">
-      <c r="A118" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B118" s="8" t="s">
+      <c r="A118" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>461</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119">
-      <c r="A119" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B119" s="8" t="s">
+      <c r="A119" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>460</v>
+      <c r="C119" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E119" s="66" t="s">
+        <v>465</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120">
-      <c r="A120" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="E120" s="10" t="s">
+      <c r="A120" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>463</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>468</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121">
-      <c r="A121" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B121" s="8" t="s">
+      <c r="A121" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>467</v>
-      </c>
+      <c r="C121" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="F121" s="9"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>469</v>
+      <c r="C122" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="F122" s="27"/>
+        <v>474</v>
+      </c>
+      <c r="F122" s="9"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>476</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="F123" s="9"/>
       <c r="G123" s="12"/>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>441</v>
+      <c r="C124" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="27"/>
+        <v>481</v>
+      </c>
+      <c r="F124" s="9"/>
       <c r="G124" s="12"/>
     </row>
     <row r="125">
-      <c r="A125" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="14" t="s">
+      <c r="A125" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="F126" s="27"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C127" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F128" s="27"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D125" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E125" s="15" t="s">
+      <c r="D129" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E129" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="53" t="s">
-        <v>483</v>
-      </c>
-      <c r="B126" s="8" t="s">
+      <c r="F129" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D126" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="9"/>
+      <c r="D130" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>504</v>
+      </c>
       <c r="G130" s="12"/>
     </row>
     <row r="131">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
-      <c r="C131" s="11"/>
+      <c r="C131" s="9"/>
       <c r="D131" s="64"/>
       <c r="E131" s="64"/>
       <c r="F131" s="9"/>
@@ -5594,7 +5696,7 @@
     <row r="132">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
-      <c r="C132" s="11"/>
+      <c r="C132" s="9"/>
       <c r="D132" s="64"/>
       <c r="E132" s="64"/>
       <c r="F132" s="9"/>
@@ -5603,7 +5705,7 @@
     <row r="133">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
-      <c r="C133" s="11"/>
+      <c r="C133" s="27"/>
       <c r="D133" s="64"/>
       <c r="E133" s="64"/>
       <c r="F133" s="9"/>
@@ -5611,7 +5713,7 @@
     </row>
     <row r="134">
       <c r="A134" s="13"/>
-      <c r="B134" s="67"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="11"/>
       <c r="D134" s="64"/>
       <c r="E134" s="64"/>
@@ -5630,7 +5732,7 @@
     <row r="136">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="9"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="64"/>
       <c r="E136" s="64"/>
       <c r="F136" s="9"/>
@@ -5639,7 +5741,7 @@
     <row r="137">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
-      <c r="C137" s="9"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="64"/>
       <c r="E137" s="64"/>
       <c r="F137" s="9"/>
@@ -5647,8 +5749,8 @@
     </row>
     <row r="138">
       <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="9"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="64"/>
       <c r="E138" s="64"/>
       <c r="F138" s="9"/>
@@ -5657,7 +5759,7 @@
     <row r="139">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
-      <c r="C139" s="9"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="64"/>
       <c r="E139" s="64"/>
       <c r="F139" s="9"/>
@@ -14356,6 +14458,42 @@
       <c r="E1105" s="64"/>
       <c r="F1105" s="9"/>
       <c r="G1105" s="12"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="13"/>
+      <c r="B1106" s="14"/>
+      <c r="C1106" s="9"/>
+      <c r="D1106" s="64"/>
+      <c r="E1106" s="64"/>
+      <c r="F1106" s="9"/>
+      <c r="G1106" s="12"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="13"/>
+      <c r="B1107" s="14"/>
+      <c r="C1107" s="9"/>
+      <c r="D1107" s="64"/>
+      <c r="E1107" s="64"/>
+      <c r="F1107" s="9"/>
+      <c r="G1107" s="12"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="13"/>
+      <c r="B1108" s="14"/>
+      <c r="C1108" s="9"/>
+      <c r="D1108" s="64"/>
+      <c r="E1108" s="64"/>
+      <c r="F1108" s="9"/>
+      <c r="G1108" s="12"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="13"/>
+      <c r="B1109" s="14"/>
+      <c r="C1109" s="9"/>
+      <c r="D1109" s="64"/>
+      <c r="E1109" s="64"/>
+      <c r="F1109" s="9"/>
+      <c r="G1109" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14529,100 +14667,111 @@
     <hyperlink r:id="rId168" ref="C76"/>
     <hyperlink r:id="rId169" ref="D76"/>
     <hyperlink r:id="rId170" ref="E76"/>
-    <hyperlink r:id="rId171" location="aims-and-scope" ref="C79"/>
-    <hyperlink r:id="rId172" ref="D79"/>
-    <hyperlink r:id="rId173" ref="E79"/>
-    <hyperlink r:id="rId174" ref="D82"/>
-    <hyperlink r:id="rId175" ref="E82"/>
-    <hyperlink r:id="rId176" ref="D83"/>
-    <hyperlink r:id="rId177" ref="E83"/>
-    <hyperlink r:id="rId178" ref="D84"/>
-    <hyperlink r:id="rId179" ref="E84"/>
-    <hyperlink r:id="rId180" ref="F84"/>
-    <hyperlink r:id="rId181" ref="D85"/>
-    <hyperlink r:id="rId182" ref="E85"/>
-    <hyperlink r:id="rId183" ref="D86"/>
-    <hyperlink r:id="rId184" ref="E86"/>
-    <hyperlink r:id="rId185" ref="D87"/>
-    <hyperlink r:id="rId186" ref="E87"/>
-    <hyperlink r:id="rId187" ref="D88"/>
-    <hyperlink r:id="rId188" ref="E88"/>
-    <hyperlink r:id="rId189" ref="D89"/>
-    <hyperlink r:id="rId190" ref="E89"/>
-    <hyperlink r:id="rId191" location="callForPapersHeader" ref="D90"/>
-    <hyperlink r:id="rId192" ref="E90"/>
-    <hyperlink r:id="rId193" ref="D91"/>
-    <hyperlink r:id="rId194" ref="F91"/>
-    <hyperlink r:id="rId195" ref="D92"/>
-    <hyperlink r:id="rId196" ref="E92"/>
-    <hyperlink r:id="rId197" ref="F92"/>
-    <hyperlink r:id="rId198" ref="D93"/>
-    <hyperlink r:id="rId199" ref="E93"/>
-    <hyperlink r:id="rId200" ref="D94"/>
-    <hyperlink r:id="rId201" ref="E94"/>
-    <hyperlink r:id="rId202" ref="C95"/>
-    <hyperlink r:id="rId203" ref="D95"/>
-    <hyperlink r:id="rId204" ref="E95"/>
+    <hyperlink r:id="rId171" ref="C77"/>
+    <hyperlink r:id="rId172" ref="D77"/>
+    <hyperlink r:id="rId173" ref="E77"/>
+    <hyperlink r:id="rId174" ref="C78"/>
+    <hyperlink r:id="rId175" ref="D78"/>
+    <hyperlink r:id="rId176" ref="E78"/>
+    <hyperlink r:id="rId177" ref="F78"/>
+    <hyperlink r:id="rId178" ref="D79"/>
+    <hyperlink r:id="rId179" ref="E79"/>
+    <hyperlink r:id="rId180" ref="D80"/>
+    <hyperlink r:id="rId181" ref="E80"/>
+    <hyperlink r:id="rId182" location="aims-and-scope" ref="C83"/>
+    <hyperlink r:id="rId183" ref="D83"/>
+    <hyperlink r:id="rId184" ref="E83"/>
+    <hyperlink r:id="rId185" ref="D86"/>
+    <hyperlink r:id="rId186" ref="E86"/>
+    <hyperlink r:id="rId187" ref="D87"/>
+    <hyperlink r:id="rId188" ref="E87"/>
+    <hyperlink r:id="rId189" ref="D88"/>
+    <hyperlink r:id="rId190" ref="E88"/>
+    <hyperlink r:id="rId191" ref="F88"/>
+    <hyperlink r:id="rId192" ref="D89"/>
+    <hyperlink r:id="rId193" ref="E89"/>
+    <hyperlink r:id="rId194" ref="D90"/>
+    <hyperlink r:id="rId195" ref="E90"/>
+    <hyperlink r:id="rId196" ref="D91"/>
+    <hyperlink r:id="rId197" ref="E91"/>
+    <hyperlink r:id="rId198" ref="D92"/>
+    <hyperlink r:id="rId199" ref="E92"/>
+    <hyperlink r:id="rId200" ref="D93"/>
+    <hyperlink r:id="rId201" ref="E93"/>
+    <hyperlink r:id="rId202" location="callForPapersHeader" ref="D94"/>
+    <hyperlink r:id="rId203" ref="E94"/>
+    <hyperlink r:id="rId204" ref="D95"/>
     <hyperlink r:id="rId205" ref="F95"/>
-    <hyperlink r:id="rId206" ref="C96"/>
-    <hyperlink r:id="rId207" ref="D96"/>
-    <hyperlink r:id="rId208" ref="E96"/>
-    <hyperlink r:id="rId209" ref="F96"/>
-    <hyperlink r:id="rId210" ref="D97"/>
-    <hyperlink r:id="rId211" ref="E97"/>
-    <hyperlink r:id="rId212" ref="C98"/>
-    <hyperlink r:id="rId213" ref="D98"/>
-    <hyperlink r:id="rId214" ref="E98"/>
-    <hyperlink r:id="rId215" ref="D101"/>
-    <hyperlink r:id="rId216" ref="E101"/>
-    <hyperlink r:id="rId217" ref="D103"/>
-    <hyperlink r:id="rId218" ref="D104"/>
-    <hyperlink r:id="rId219" ref="E104"/>
-    <hyperlink r:id="rId220" ref="D105"/>
-    <hyperlink r:id="rId221" ref="D106"/>
-    <hyperlink r:id="rId222" ref="E106"/>
-    <hyperlink r:id="rId223" ref="F106"/>
-    <hyperlink r:id="rId224" ref="C107"/>
-    <hyperlink r:id="rId225" ref="D107"/>
-    <hyperlink r:id="rId226" ref="E107"/>
-    <hyperlink r:id="rId227" ref="D108"/>
-    <hyperlink r:id="rId228" ref="E108"/>
-    <hyperlink r:id="rId229" ref="F108"/>
-    <hyperlink r:id="rId230" ref="D110"/>
-    <hyperlink r:id="rId231" ref="D111"/>
-    <hyperlink r:id="rId232" ref="E111"/>
-    <hyperlink r:id="rId233" ref="D112"/>
-    <hyperlink r:id="rId234" ref="D113"/>
-    <hyperlink r:id="rId235" ref="D114"/>
-    <hyperlink r:id="rId236" ref="E114"/>
-    <hyperlink r:id="rId237" ref="D115"/>
-    <hyperlink r:id="rId238" ref="E115"/>
-    <hyperlink r:id="rId239" ref="D116"/>
-    <hyperlink r:id="rId240" ref="E116"/>
-    <hyperlink r:id="rId241" ref="D117"/>
-    <hyperlink r:id="rId242" ref="E117"/>
-    <hyperlink r:id="rId243" ref="D118"/>
-    <hyperlink r:id="rId244" ref="E118"/>
-    <hyperlink r:id="rId245" ref="D119"/>
-    <hyperlink r:id="rId246" ref="E119"/>
-    <hyperlink r:id="rId247" ref="D120"/>
-    <hyperlink r:id="rId248" ref="E120"/>
-    <hyperlink r:id="rId249" ref="D121"/>
-    <hyperlink r:id="rId250" ref="E121"/>
-    <hyperlink r:id="rId251" ref="F121"/>
-    <hyperlink r:id="rId252" ref="D122"/>
-    <hyperlink r:id="rId253" ref="E122"/>
-    <hyperlink r:id="rId254" ref="D123"/>
-    <hyperlink r:id="rId255" ref="E123"/>
-    <hyperlink r:id="rId256" ref="F123"/>
-    <hyperlink r:id="rId257" ref="D124"/>
-    <hyperlink r:id="rId258" ref="E124"/>
-    <hyperlink r:id="rId259" ref="D125"/>
-    <hyperlink r:id="rId260" ref="E125"/>
-    <hyperlink r:id="rId261" ref="D126"/>
-    <hyperlink r:id="rId262" ref="E126"/>
+    <hyperlink r:id="rId206" ref="D96"/>
+    <hyperlink r:id="rId207" ref="E96"/>
+    <hyperlink r:id="rId208" ref="F96"/>
+    <hyperlink r:id="rId209" ref="D97"/>
+    <hyperlink r:id="rId210" ref="E97"/>
+    <hyperlink r:id="rId211" ref="D98"/>
+    <hyperlink r:id="rId212" ref="E98"/>
+    <hyperlink r:id="rId213" ref="C99"/>
+    <hyperlink r:id="rId214" ref="D99"/>
+    <hyperlink r:id="rId215" ref="E99"/>
+    <hyperlink r:id="rId216" ref="F99"/>
+    <hyperlink r:id="rId217" ref="C100"/>
+    <hyperlink r:id="rId218" ref="D100"/>
+    <hyperlink r:id="rId219" ref="E100"/>
+    <hyperlink r:id="rId220" ref="F100"/>
+    <hyperlink r:id="rId221" ref="D101"/>
+    <hyperlink r:id="rId222" ref="E101"/>
+    <hyperlink r:id="rId223" ref="C102"/>
+    <hyperlink r:id="rId224" ref="D102"/>
+    <hyperlink r:id="rId225" ref="E102"/>
+    <hyperlink r:id="rId226" ref="D105"/>
+    <hyperlink r:id="rId227" ref="E105"/>
+    <hyperlink r:id="rId228" ref="D107"/>
+    <hyperlink r:id="rId229" ref="D108"/>
+    <hyperlink r:id="rId230" ref="E108"/>
+    <hyperlink r:id="rId231" ref="D109"/>
+    <hyperlink r:id="rId232" ref="D110"/>
+    <hyperlink r:id="rId233" ref="E110"/>
+    <hyperlink r:id="rId234" ref="F110"/>
+    <hyperlink r:id="rId235" ref="C111"/>
+    <hyperlink r:id="rId236" ref="D111"/>
+    <hyperlink r:id="rId237" ref="E111"/>
+    <hyperlink r:id="rId238" ref="D112"/>
+    <hyperlink r:id="rId239" ref="E112"/>
+    <hyperlink r:id="rId240" ref="F112"/>
+    <hyperlink r:id="rId241" ref="D114"/>
+    <hyperlink r:id="rId242" ref="D115"/>
+    <hyperlink r:id="rId243" ref="E115"/>
+    <hyperlink r:id="rId244" ref="D116"/>
+    <hyperlink r:id="rId245" ref="D117"/>
+    <hyperlink r:id="rId246" ref="D118"/>
+    <hyperlink r:id="rId247" ref="E118"/>
+    <hyperlink r:id="rId248" ref="D119"/>
+    <hyperlink r:id="rId249" ref="E119"/>
+    <hyperlink r:id="rId250" ref="D120"/>
+    <hyperlink r:id="rId251" ref="E120"/>
+    <hyperlink r:id="rId252" ref="D121"/>
+    <hyperlink r:id="rId253" ref="E121"/>
+    <hyperlink r:id="rId254" ref="D122"/>
+    <hyperlink r:id="rId255" ref="E122"/>
+    <hyperlink r:id="rId256" ref="D123"/>
+    <hyperlink r:id="rId257" ref="E123"/>
+    <hyperlink r:id="rId258" ref="D124"/>
+    <hyperlink r:id="rId259" ref="E124"/>
+    <hyperlink r:id="rId260" ref="D125"/>
+    <hyperlink r:id="rId261" ref="E125"/>
+    <hyperlink r:id="rId262" ref="F125"/>
+    <hyperlink r:id="rId263" ref="D126"/>
+    <hyperlink r:id="rId264" ref="E126"/>
+    <hyperlink r:id="rId265" ref="D127"/>
+    <hyperlink r:id="rId266" ref="E127"/>
+    <hyperlink r:id="rId267" ref="F127"/>
+    <hyperlink r:id="rId268" ref="D128"/>
+    <hyperlink r:id="rId269" ref="E128"/>
+    <hyperlink r:id="rId270" ref="D129"/>
+    <hyperlink r:id="rId271" ref="E129"/>
+    <hyperlink r:id="rId272" ref="D130"/>
+    <hyperlink r:id="rId273" ref="E130"/>
   </hyperlinks>
-  <drawing r:id="rId263"/>
+  <drawing r:id="rId274"/>
 </worksheet>
 </file>
 
@@ -14660,7 +14809,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -14685,27 +14834,27 @@
     </row>
     <row r="2">
       <c r="A2" s="73" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B2" s="74">
         <v>3.0</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="73" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B3" s="78">
         <v>45353.0</v>
@@ -14714,16 +14863,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F3" s="80"/>
     </row>
     <row r="4">
       <c r="A4" s="73" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B4" s="74">
         <v>3.0</v>
@@ -14732,16 +14881,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="F4" s="80"/>
     </row>
     <row r="5">
       <c r="A5" s="73" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="B5" s="74">
         <v>3.0</v>
@@ -14750,38 +14899,38 @@
         <v>9</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B6" s="74">
         <v>3.0</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="73" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B7" s="74">
         <v>3.0</v>
@@ -14790,13 +14939,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8">
@@ -22779,22 +22928,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -22819,22 +22968,22 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="C2" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="G2" s="87"/>
       <c r="H2" s="87"/>
@@ -23027,7 +23176,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
@@ -23057,7 +23206,7 @@
     </row>
     <row r="10">
       <c r="A10" s="89" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -26606,75 +26755,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="91" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="91" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="D2" s="93">
         <v>45746.0</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="91" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="B3" s="96">
         <v>4.0</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="D3" s="93">
         <v>45899.0</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="F3" s="91" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="91" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B4" s="92"/>
       <c r="D4" s="93">
         <v>45884.0</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
@@ -30691,10 +30840,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>3</v>
@@ -30727,89 +30876,89 @@
     </row>
     <row r="2">
       <c r="A2" s="99" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="D2" s="100"/>
       <c r="E2" s="101"/>
     </row>
     <row r="3">
       <c r="A3" s="99" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="D3" s="100"/>
       <c r="E3" s="101"/>
     </row>
     <row r="4">
       <c r="A4" s="99" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="B4" s="96">
         <v>2024.0</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="101"/>
     </row>
     <row r="5">
       <c r="A5" s="99" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="B5" s="96" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="101"/>
     </row>
     <row r="6">
       <c r="A6" s="99" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="B6" s="96">
         <v>2025.0</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="D6" s="100"/>
       <c r="E6" s="101"/>
     </row>
     <row r="7">
       <c r="A7" s="99" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="102" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="B8" s="96">
         <v>2025.0</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9">
@@ -34810,82 +34959,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="104" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="105" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="105" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="105" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="105" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="105" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="105" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="105" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="105" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="105" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11">

--- a/source/Journals.xlsx
+++ b/source/Journals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="592">
   <si>
     <t>Journal</t>
   </si>
@@ -1295,6 +1295,15 @@
   </si>
   <si>
     <t>Publication Frequency: 1 issue per year?</t>
+  </si>
+  <si>
+    <t>Forum of Mathematics, Sigma</t>
+  </si>
+  <si>
+    <t>https://www.scimagojr.com/journalsearch.php?q=21100886430&amp;tip=sid</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/forum-of-mathematics-sigma/listing?q=survival&amp;searchWithinIds=FFA2827E377ED5D335BA35E30804D5A3&amp;fts=yes</t>
   </si>
   <si>
     <t>Decision Sciences</t>
@@ -4765,94 +4774,94 @@
       <c r="G80" s="12"/>
     </row>
     <row r="81">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
+      <c r="A81" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="F81" s="27"/>
       <c r="G81" s="12"/>
     </row>
     <row r="82">
-      <c r="A82" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="48"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="12"/>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="48"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C84" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F83" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="27"/>
+      <c r="D84" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>347</v>
+      </c>
       <c r="G84" s="12"/>
     </row>
     <row r="85">
-      <c r="A85" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="48"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" s="15" t="s">
+      <c r="A86" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="12"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="48"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="49" t="s">
-        <v>9</v>
+      <c r="C87" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>351</v>
@@ -4860,239 +4869,237 @@
       <c r="E87" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>353</v>
-      </c>
+      <c r="F87" s="9"/>
       <c r="G87" s="12"/>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="F88" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>358</v>
       </c>
       <c r="G88" s="12"/>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="D89" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="F89" s="25" t="s">
         <v>361</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="G89" s="12"/>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="11" t="s">
+      <c r="E90" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="F90" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="G90" s="12"/>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="15" t="s">
+      <c r="E91" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="F91" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="G91" s="12"/>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="11" t="s">
+      <c r="E92" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="F92" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="F92" s="50" t="s">
-        <v>376</v>
       </c>
       <c r="G92" s="12"/>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="E93" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F93" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="F94" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="52" t="s">
+      <c r="B95" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="11" t="s">
+      <c r="E95" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="F95" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="52" t="s">
         <v>388</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="53" t="s">
-        <v>390</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E96" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="F96" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="53" t="s">
         <v>393</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="B97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="G96" s="12"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="7" t="s">
+      <c r="D97" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="11" t="s">
+      <c r="E97" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="F97" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="F97" s="27" t="s">
-        <v>399</v>
       </c>
       <c r="G97" s="12"/>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="F98" s="27" t="s">
         <v>402</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>278</v>
       </c>
       <c r="G98" s="12"/>
     </row>
@@ -5103,8 +5110,8 @@
       <c r="B99" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="25" t="s">
-        <v>182</v>
+      <c r="C99" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>404</v>
@@ -5112,329 +5119,331 @@
       <c r="E99" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="28" t="s">
-        <v>407</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="F100" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="B101" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="54" t="s">
+      <c r="D101" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="55" t="s">
+      <c r="B102" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C102" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="56" t="s">
+      <c r="D102" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="57" t="s">
-        <v>412</v>
-      </c>
-      <c r="F101" s="54" t="s">
+      <c r="E102" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="F102" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="G101" s="58"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B102" s="8" t="s">
+      <c r="G102" s="58"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C103" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="59"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="41"/>
+      <c r="D103" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="G103" s="12"/>
     </row>
     <row r="104">
-      <c r="A104" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="48"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="41"/>
     </row>
     <row r="105">
-      <c r="A105" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B105" s="8" t="s">
+      <c r="A105" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="48"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C106" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
+      <c r="D106" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="F106" s="27"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107">
-      <c r="A107" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="B107" s="44"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="E107" s="47"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="48"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="12"/>
     </row>
     <row r="108">
-      <c r="A108" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D108" s="10" t="s">
+      <c r="A108" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="E108" s="47"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="48"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="28" t="s">
         <v>426</v>
-      </c>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E109" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="F109" s="11" t="s">
         <v>429</v>
-      </c>
-      <c r="E109" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="G109" s="12"/>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>9</v>
+      <c r="C110" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="28" t="s">
+      <c r="B111" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" s="25" t="s">
+      <c r="E111" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="F111" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="28" t="s">
         <v>438</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="E112" s="63" t="s">
-        <v>442</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="13"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="9"/>
+      <c r="D113" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E113" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>446</v>
+      </c>
       <c r="G113" s="12"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B114" s="44"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="65" t="s">
-        <v>445</v>
-      </c>
-      <c r="E114" s="47"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="48"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="12"/>
     </row>
     <row r="115">
-      <c r="A115" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B115" s="8" t="s">
+      <c r="A115" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="E115" s="47"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="48"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C116" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="13" t="s">
+      <c r="D116" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="B116" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="E116" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="F116" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="E116" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="G116" s="12"/>
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D117" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="E117" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="D117" s="15" t="s">
+      <c r="F117" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E117" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="F117" s="9"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118">
       <c r="A118" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>37</v>
+      <c r="B118" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>459</v>
@@ -5442,45 +5451,45 @@
       <c r="D118" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="E118" s="15" t="s">
-        <v>461</v>
+      <c r="E118" s="64" t="s">
+        <v>456</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119">
       <c r="A119" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C119" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D119" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="D119" s="15" t="s">
+      <c r="E119" s="15" t="s">
         <v>464</v>
-      </c>
-      <c r="E119" s="66" t="s">
-        <v>465</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120">
       <c r="A120" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="66" t="s">
         <v>468</v>
       </c>
       <c r="F120" s="9"/>
@@ -5491,10 +5500,10 @@
         <v>469</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>470</v>
@@ -5506,19 +5515,19 @@
       <c r="G121" s="12"/>
     </row>
     <row r="122">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="D122" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D122" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="15" t="s">
         <v>474</v>
       </c>
       <c r="F122" s="9"/>
@@ -5531,32 +5540,32 @@
       <c r="B123" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>478</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="12"/>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="24" t="s">
         <v>481</v>
       </c>
       <c r="F124" s="9"/>
@@ -5570,7 +5579,7 @@
         <v>37</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>483</v>
@@ -5578,119 +5587,129 @@
       <c r="E125" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="F125" s="25" t="s">
-        <v>485</v>
-      </c>
+      <c r="F125" s="9"/>
       <c r="G125" s="12"/>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C126" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="F126" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="F126" s="27"/>
       <c r="G126" s="12"/>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E127" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>494</v>
-      </c>
+      <c r="F127" s="27"/>
       <c r="G127" s="12"/>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="E128" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="F128" s="27"/>
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B129" s="14" t="s">
+      <c r="C129" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F129" s="27"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C130" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E129" s="15" t="s">
+      <c r="D130" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="E130" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="53" t="s">
-        <v>501</v>
-      </c>
-      <c r="B130" s="8" t="s">
+      <c r="F130" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C131" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="G130" s="12"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="9"/>
+      <c r="D131" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>507</v>
+      </c>
       <c r="G131" s="12"/>
     </row>
     <row r="132">
@@ -5705,7 +5724,7 @@
     <row r="133">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
-      <c r="C133" s="27"/>
+      <c r="C133" s="9"/>
       <c r="D133" s="64"/>
       <c r="E133" s="64"/>
       <c r="F133" s="9"/>
@@ -5714,7 +5733,7 @@
     <row r="134">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
-      <c r="C134" s="11"/>
+      <c r="C134" s="27"/>
       <c r="D134" s="64"/>
       <c r="E134" s="64"/>
       <c r="F134" s="9"/>
@@ -5749,7 +5768,7 @@
     </row>
     <row r="138">
       <c r="A138" s="13"/>
-      <c r="B138" s="67"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="11"/>
       <c r="D138" s="64"/>
       <c r="E138" s="64"/>
@@ -5758,7 +5777,7 @@
     </row>
     <row r="139">
       <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="67"/>
       <c r="C139" s="11"/>
       <c r="D139" s="64"/>
       <c r="E139" s="64"/>
@@ -5768,7 +5787,7 @@
     <row r="140">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="9"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="64"/>
       <c r="E140" s="64"/>
       <c r="F140" s="9"/>
@@ -14494,6 +14513,15 @@
       <c r="E1109" s="64"/>
       <c r="F1109" s="9"/>
       <c r="G1109" s="12"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="13"/>
+      <c r="B1110" s="14"/>
+      <c r="C1110" s="9"/>
+      <c r="D1110" s="64"/>
+      <c r="E1110" s="64"/>
+      <c r="F1110" s="9"/>
+      <c r="G1110" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14678,18 +14706,18 @@
     <hyperlink r:id="rId179" ref="E79"/>
     <hyperlink r:id="rId180" ref="D80"/>
     <hyperlink r:id="rId181" ref="E80"/>
-    <hyperlink r:id="rId182" location="aims-and-scope" ref="C83"/>
-    <hyperlink r:id="rId183" ref="D83"/>
-    <hyperlink r:id="rId184" ref="E83"/>
-    <hyperlink r:id="rId185" ref="D86"/>
-    <hyperlink r:id="rId186" ref="E86"/>
+    <hyperlink r:id="rId182" ref="D81"/>
+    <hyperlink r:id="rId183" ref="E81"/>
+    <hyperlink r:id="rId184" location="aims-and-scope" ref="C84"/>
+    <hyperlink r:id="rId185" ref="D84"/>
+    <hyperlink r:id="rId186" ref="E84"/>
     <hyperlink r:id="rId187" ref="D87"/>
     <hyperlink r:id="rId188" ref="E87"/>
     <hyperlink r:id="rId189" ref="D88"/>
     <hyperlink r:id="rId190" ref="E88"/>
-    <hyperlink r:id="rId191" ref="F88"/>
-    <hyperlink r:id="rId192" ref="D89"/>
-    <hyperlink r:id="rId193" ref="E89"/>
+    <hyperlink r:id="rId191" ref="D89"/>
+    <hyperlink r:id="rId192" ref="E89"/>
+    <hyperlink r:id="rId193" ref="F89"/>
     <hyperlink r:id="rId194" ref="D90"/>
     <hyperlink r:id="rId195" ref="E90"/>
     <hyperlink r:id="rId196" ref="D91"/>
@@ -14698,52 +14726,52 @@
     <hyperlink r:id="rId199" ref="E92"/>
     <hyperlink r:id="rId200" ref="D93"/>
     <hyperlink r:id="rId201" ref="E93"/>
-    <hyperlink r:id="rId202" location="callForPapersHeader" ref="D94"/>
+    <hyperlink r:id="rId202" ref="D94"/>
     <hyperlink r:id="rId203" ref="E94"/>
-    <hyperlink r:id="rId204" ref="D95"/>
-    <hyperlink r:id="rId205" ref="F95"/>
+    <hyperlink r:id="rId204" location="callForPapersHeader" ref="D95"/>
+    <hyperlink r:id="rId205" ref="E95"/>
     <hyperlink r:id="rId206" ref="D96"/>
-    <hyperlink r:id="rId207" ref="E96"/>
-    <hyperlink r:id="rId208" ref="F96"/>
-    <hyperlink r:id="rId209" ref="D97"/>
-    <hyperlink r:id="rId210" ref="E97"/>
+    <hyperlink r:id="rId207" ref="F96"/>
+    <hyperlink r:id="rId208" ref="D97"/>
+    <hyperlink r:id="rId209" ref="E97"/>
+    <hyperlink r:id="rId210" ref="F97"/>
     <hyperlink r:id="rId211" ref="D98"/>
     <hyperlink r:id="rId212" ref="E98"/>
-    <hyperlink r:id="rId213" ref="C99"/>
-    <hyperlink r:id="rId214" ref="D99"/>
-    <hyperlink r:id="rId215" ref="E99"/>
-    <hyperlink r:id="rId216" ref="F99"/>
-    <hyperlink r:id="rId217" ref="C100"/>
-    <hyperlink r:id="rId218" ref="D100"/>
-    <hyperlink r:id="rId219" ref="E100"/>
-    <hyperlink r:id="rId220" ref="F100"/>
-    <hyperlink r:id="rId221" ref="D101"/>
-    <hyperlink r:id="rId222" ref="E101"/>
-    <hyperlink r:id="rId223" ref="C102"/>
-    <hyperlink r:id="rId224" ref="D102"/>
-    <hyperlink r:id="rId225" ref="E102"/>
-    <hyperlink r:id="rId226" ref="D105"/>
-    <hyperlink r:id="rId227" ref="E105"/>
-    <hyperlink r:id="rId228" ref="D107"/>
-    <hyperlink r:id="rId229" ref="D108"/>
-    <hyperlink r:id="rId230" ref="E108"/>
+    <hyperlink r:id="rId213" ref="D99"/>
+    <hyperlink r:id="rId214" ref="E99"/>
+    <hyperlink r:id="rId215" ref="C100"/>
+    <hyperlink r:id="rId216" ref="D100"/>
+    <hyperlink r:id="rId217" ref="E100"/>
+    <hyperlink r:id="rId218" ref="F100"/>
+    <hyperlink r:id="rId219" ref="C101"/>
+    <hyperlink r:id="rId220" ref="D101"/>
+    <hyperlink r:id="rId221" ref="E101"/>
+    <hyperlink r:id="rId222" ref="F101"/>
+    <hyperlink r:id="rId223" ref="D102"/>
+    <hyperlink r:id="rId224" ref="E102"/>
+    <hyperlink r:id="rId225" ref="C103"/>
+    <hyperlink r:id="rId226" ref="D103"/>
+    <hyperlink r:id="rId227" ref="E103"/>
+    <hyperlink r:id="rId228" ref="D106"/>
+    <hyperlink r:id="rId229" ref="E106"/>
+    <hyperlink r:id="rId230" ref="D108"/>
     <hyperlink r:id="rId231" ref="D109"/>
-    <hyperlink r:id="rId232" ref="D110"/>
-    <hyperlink r:id="rId233" ref="E110"/>
-    <hyperlink r:id="rId234" ref="F110"/>
-    <hyperlink r:id="rId235" ref="C111"/>
-    <hyperlink r:id="rId236" ref="D111"/>
-    <hyperlink r:id="rId237" ref="E111"/>
+    <hyperlink r:id="rId232" ref="E109"/>
+    <hyperlink r:id="rId233" ref="D110"/>
+    <hyperlink r:id="rId234" ref="D111"/>
+    <hyperlink r:id="rId235" ref="E111"/>
+    <hyperlink r:id="rId236" ref="F111"/>
+    <hyperlink r:id="rId237" ref="C112"/>
     <hyperlink r:id="rId238" ref="D112"/>
     <hyperlink r:id="rId239" ref="E112"/>
-    <hyperlink r:id="rId240" ref="F112"/>
-    <hyperlink r:id="rId241" ref="D114"/>
-    <hyperlink r:id="rId242" ref="D115"/>
-    <hyperlink r:id="rId243" ref="E115"/>
+    <hyperlink r:id="rId240" ref="D113"/>
+    <hyperlink r:id="rId241" ref="E113"/>
+    <hyperlink r:id="rId242" ref="F113"/>
+    <hyperlink r:id="rId243" ref="D115"/>
     <hyperlink r:id="rId244" ref="D116"/>
-    <hyperlink r:id="rId245" ref="D117"/>
-    <hyperlink r:id="rId246" ref="D118"/>
-    <hyperlink r:id="rId247" ref="E118"/>
+    <hyperlink r:id="rId245" ref="E116"/>
+    <hyperlink r:id="rId246" ref="D117"/>
+    <hyperlink r:id="rId247" ref="D118"/>
     <hyperlink r:id="rId248" ref="D119"/>
     <hyperlink r:id="rId249" ref="E119"/>
     <hyperlink r:id="rId250" ref="D120"/>
@@ -14758,20 +14786,22 @@
     <hyperlink r:id="rId259" ref="E124"/>
     <hyperlink r:id="rId260" ref="D125"/>
     <hyperlink r:id="rId261" ref="E125"/>
-    <hyperlink r:id="rId262" ref="F125"/>
-    <hyperlink r:id="rId263" ref="D126"/>
-    <hyperlink r:id="rId264" ref="E126"/>
+    <hyperlink r:id="rId262" ref="D126"/>
+    <hyperlink r:id="rId263" ref="E126"/>
+    <hyperlink r:id="rId264" ref="F126"/>
     <hyperlink r:id="rId265" ref="D127"/>
     <hyperlink r:id="rId266" ref="E127"/>
-    <hyperlink r:id="rId267" ref="F127"/>
-    <hyperlink r:id="rId268" ref="D128"/>
-    <hyperlink r:id="rId269" ref="E128"/>
+    <hyperlink r:id="rId267" ref="D128"/>
+    <hyperlink r:id="rId268" ref="E128"/>
+    <hyperlink r:id="rId269" ref="F128"/>
     <hyperlink r:id="rId270" ref="D129"/>
     <hyperlink r:id="rId271" ref="E129"/>
     <hyperlink r:id="rId272" ref="D130"/>
     <hyperlink r:id="rId273" ref="E130"/>
+    <hyperlink r:id="rId274" ref="D131"/>
+    <hyperlink r:id="rId275" ref="E131"/>
   </hyperlinks>
-  <drawing r:id="rId274"/>
+  <drawing r:id="rId276"/>
 </worksheet>
 </file>
 
@@ -14809,7 +14839,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -14834,27 +14864,27 @@
     </row>
     <row r="2">
       <c r="A2" s="73" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B2" s="74">
         <v>3.0</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="73" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B3" s="78">
         <v>45353.0</v>
@@ -14863,16 +14893,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F3" s="80"/>
     </row>
     <row r="4">
       <c r="A4" s="73" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B4" s="74">
         <v>3.0</v>
@@ -14881,16 +14911,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F4" s="80"/>
     </row>
     <row r="5">
       <c r="A5" s="73" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B5" s="74">
         <v>3.0</v>
@@ -14899,38 +14929,38 @@
         <v>9</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B6" s="74">
         <v>3.0</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="73" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B7" s="74">
         <v>3.0</v>
@@ -14939,13 +14969,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8">
@@ -22928,22 +22958,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -22968,22 +22998,22 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C2" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G2" s="87"/>
       <c r="H2" s="87"/>
@@ -23176,7 +23206,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
@@ -23206,7 +23236,7 @@
     </row>
     <row r="10">
       <c r="A10" s="89" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -26755,75 +26785,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="84" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="91" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="91" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D2" s="93">
         <v>45746.0</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="91" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B3" s="96">
         <v>4.0</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D3" s="93">
         <v>45899.0</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F3" s="91" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="91" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B4" s="92"/>
       <c r="D4" s="93">
         <v>45884.0</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5">
@@ -30840,10 +30870,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>3</v>
@@ -30876,89 +30906,89 @@
     </row>
     <row r="2">
       <c r="A2" s="99" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D2" s="100"/>
       <c r="E2" s="101"/>
     </row>
     <row r="3">
       <c r="A3" s="99" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D3" s="100"/>
       <c r="E3" s="101"/>
     </row>
     <row r="4">
       <c r="A4" s="99" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B4" s="96">
         <v>2024.0</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="101"/>
     </row>
     <row r="5">
       <c r="A5" s="99" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B5" s="96" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="101"/>
     </row>
     <row r="6">
       <c r="A6" s="99" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B6" s="96">
         <v>2025.0</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D6" s="100"/>
       <c r="E6" s="101"/>
     </row>
     <row r="7">
       <c r="A7" s="99" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="102" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B8" s="96">
         <v>2025.0</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9">
@@ -34959,82 +34989,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="104" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="105" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="105" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="105" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="105" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="105" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="105" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="105" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="105" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="105" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
